--- a/BackTest/2019-10-28 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-28 BackTest ETHOS.xlsx
@@ -451,20 +451,14 @@
         <v>50.26666666666676</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>50.4</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>50.26666666666676</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>50.2</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>50.26666666666676</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>50.4</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>50.50000000000009</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>50.5</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>50.86666666666676</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>51.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>51.13333333333343</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>51.2</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>51.03333333333344</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>50.7</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>50.83333333333343</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>50.7</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>50.63333333333342</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>50.6</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>50.56666666666676</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>50.7</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>50.56666666666676</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>50.6</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>50.53333333333342</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>50.5</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>50.73333333333343</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>51.1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>50.63333333333343</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>50.3</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1064,20 +976,14 @@
         <v>50.50000000000009</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1105,20 +1011,14 @@
         <v>50.7000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>50.3</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1146,20 +1046,14 @@
         <v>50.86666666666677</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1187,20 +1081,14 @@
         <v>50.83333333333344</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1228,20 +1116,14 @@
         <v>50.63333333333343</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>50.3</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1308,20 +1186,14 @@
         <v>50.46666666666675</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1349,20 +1221,14 @@
         <v>50.56666666666676</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1390,20 +1256,14 @@
         <v>50.73333333333343</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1431,20 +1291,14 @@
         <v>50.76666666666677</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1472,20 +1326,14 @@
         <v>50.8000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>50.7</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1520,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1559,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1598,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1637,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2066,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2105,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2300,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2456,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2495,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2534,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2651,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2690,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2846,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2885,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2963,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3197,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3548,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3743,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3821,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3860,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3938,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3977,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4016,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4094,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4172,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4250,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4289,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4438,16 +3986,18 @@
         <v>50.76666666666679</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>50.9</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4516,12 +4066,14 @@
         <v>51.0666666666668</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>50.9</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4828,12 +4380,14 @@
         <v>50.93333333333347</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>50.9</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4867,12 +4421,14 @@
         <v>51.03333333333347</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>51</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4906,12 +4462,14 @@
         <v>51.03333333333347</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>51.2</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4945,12 +4503,14 @@
         <v>51.00000000000014</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>50.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4984,12 +4544,14 @@
         <v>51.13333333333346</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>50.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -5023,12 +4585,14 @@
         <v>51.13333333333346</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -6466,12 +6030,14 @@
         <v>51.40000000000011</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>51.7</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6856,12 +6422,14 @@
         <v>50.80000000000008</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>50.8</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6895,12 +6463,14 @@
         <v>50.80000000000007</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>50.8</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6934,12 +6504,14 @@
         <v>50.96666666666673</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>50.8</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6973,12 +6545,14 @@
         <v>51.1333333333334</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>51.3</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -7012,12 +6586,14 @@
         <v>51.20000000000007</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>51.3</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -7051,12 +6627,14 @@
         <v>51.06666666666674</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>51</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -7090,12 +6668,14 @@
         <v>51.00000000000008</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>50.9</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -7129,12 +6709,14 @@
         <v>51.00000000000008</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>51.1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -7168,12 +6750,14 @@
         <v>51.03333333333341</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>51</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -7207,12 +6791,14 @@
         <v>51.06666666666675</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>51</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -7246,12 +6832,14 @@
         <v>51.10000000000008</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>51.2</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -7285,12 +6873,14 @@
         <v>51.16666666666674</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>51.1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -7324,12 +6914,14 @@
         <v>51.20000000000008</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>51.2</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -7363,12 +6955,14 @@
         <v>51.26666666666676</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>51.3</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -7402,12 +6996,14 @@
         <v>51.30000000000009</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>51.3</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7480,12 +7076,14 @@
         <v>51.43333333333343</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7558,12 +7156,14 @@
         <v>51.53333333333344</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7597,12 +7197,14 @@
         <v>51.53333333333344</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -9082,16 +8684,18 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9123,10 +8727,12 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9224,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -9259,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -9294,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -10586,13 +10192,17 @@
         <v>53.43333333333345</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="K265" t="n">
+        <v>53.9</v>
+      </c>
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
@@ -10621,14 +10231,22 @@
         <v>53.43333333333345</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>53</v>
+      </c>
+      <c r="K266" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10662,8 +10280,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-28 BackTest ETHOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M286"/>
+  <dimension ref="A1:M287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C2" t="n">
         <v>50.4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50.3</v>
       </c>
       <c r="D2" t="n">
         <v>50.4</v>
       </c>
       <c r="E2" t="n">
-        <v>50.3</v>
+        <v>50.1</v>
       </c>
       <c r="F2" t="n">
-        <v>36700.9321</v>
+        <v>21949.9997</v>
       </c>
       <c r="G2" t="n">
-        <v>50.26666666666676</v>
+        <v>49.1066666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
       <c r="C3" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="D3" t="n">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
       <c r="E3" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="F3" t="n">
-        <v>16836.9973</v>
+        <v>36700.9321</v>
       </c>
       <c r="G3" t="n">
-        <v>50.26666666666676</v>
+        <v>49.13833333333337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="C4" t="n">
-        <v>50.4</v>
+        <v>50.1</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="E4" t="n">
-        <v>50.4</v>
+        <v>50.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3763.5158</v>
+        <v>16836.9973</v>
       </c>
       <c r="G4" t="n">
-        <v>50.26666666666676</v>
+        <v>49.16666666666671</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>50.4</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>50.4</v>
       </c>
       <c r="E5" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F5" t="n">
-        <v>25058.5464</v>
+        <v>3763.5158</v>
       </c>
       <c r="G5" t="n">
-        <v>50.50000000000009</v>
+        <v>49.18666666666671</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.2</v>
+        <v>50.5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>51.2</v>
+        <v>50.5</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>25058.5464</v>
       </c>
       <c r="G6" t="n">
-        <v>50.86666666666676</v>
+        <v>49.21666666666671</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>51.2</v>
       </c>
       <c r="F7" t="n">
-        <v>10728.5546</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>51.13333333333343</v>
+        <v>49.25000000000004</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="C8" t="n">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="D8" t="n">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="E8" t="n">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="F8" t="n">
-        <v>943.5747</v>
+        <v>10728.5546</v>
       </c>
       <c r="G8" t="n">
-        <v>51.03333333333344</v>
+        <v>49.31000000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>50.7</v>
       </c>
       <c r="C9" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="D9" t="n">
         <v>50.7</v>
       </c>
       <c r="E9" t="n">
-        <v>50.5</v>
+        <v>50.7</v>
       </c>
       <c r="F9" t="n">
-        <v>18654.4729</v>
+        <v>943.5747</v>
       </c>
       <c r="G9" t="n">
-        <v>50.83333333333343</v>
+        <v>49.3416666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="C10" t="n">
         <v>50.6</v>
       </c>
       <c r="D10" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="E10" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F10" t="n">
-        <v>876.5991</v>
+        <v>18654.4729</v>
       </c>
       <c r="G10" t="n">
-        <v>50.63333333333342</v>
+        <v>49.37333333333337</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="C11" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="E11" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="F11" t="n">
-        <v>14678.2457</v>
+        <v>876.5991</v>
       </c>
       <c r="G11" t="n">
-        <v>50.56666666666676</v>
+        <v>49.40333333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="C12" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="D12" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="E12" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2537.6482</v>
+        <v>14678.2457</v>
       </c>
       <c r="G12" t="n">
-        <v>50.56666666666676</v>
+        <v>49.44166666666671</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="C13" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="D13" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="E13" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="F13" t="n">
-        <v>3965.208</v>
+        <v>2537.6482</v>
       </c>
       <c r="G13" t="n">
-        <v>50.53333333333342</v>
+        <v>49.48000000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>51.1</v>
+        <v>50.5</v>
       </c>
       <c r="C14" t="n">
-        <v>51.1</v>
+        <v>50.5</v>
       </c>
       <c r="D14" t="n">
-        <v>51.1</v>
+        <v>50.5</v>
       </c>
       <c r="E14" t="n">
-        <v>51.1</v>
+        <v>50.5</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>3965.208</v>
       </c>
       <c r="G14" t="n">
-        <v>50.73333333333343</v>
+        <v>49.51666666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="C15" t="n">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="D15" t="n">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="E15" t="n">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="F15" t="n">
-        <v>1469.9999</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>50.63333333333343</v>
+        <v>49.5516666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>50.3</v>
       </c>
       <c r="F16" t="n">
-        <v>8976.1765</v>
+        <v>1469.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>50.56666666666676</v>
+        <v>49.57500000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>50.9</v>
+        <v>50.3</v>
       </c>
       <c r="C17" t="n">
-        <v>50.9</v>
+        <v>50.3</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9</v>
+        <v>50.3</v>
       </c>
       <c r="E17" t="n">
-        <v>50.9</v>
+        <v>50.3</v>
       </c>
       <c r="F17" t="n">
-        <v>10.1</v>
+        <v>8976.1765</v>
       </c>
       <c r="G17" t="n">
-        <v>50.50000000000009</v>
+        <v>49.60833333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>50.3</v>
+        <v>50.9</v>
       </c>
       <c r="C18" t="n">
         <v>50.9</v>
@@ -1002,13 +1002,13 @@
         <v>50.9</v>
       </c>
       <c r="E18" t="n">
-        <v>50.3</v>
+        <v>50.9</v>
       </c>
       <c r="F18" t="n">
-        <v>2103.6941</v>
+        <v>10.1</v>
       </c>
       <c r="G18" t="n">
-        <v>50.7000000000001</v>
+        <v>49.65166666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="C19" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="D19" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E19" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>2103.6941</v>
       </c>
       <c r="G19" t="n">
-        <v>50.86666666666677</v>
+        <v>49.69500000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>50.83333333333344</v>
+        <v>49.73333333333336</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="C21" t="n">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="D21" t="n">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="E21" t="n">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="F21" t="n">
-        <v>24.314</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="n">
-        <v>50.63333333333343</v>
+        <v>49.77000000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>50.3</v>
       </c>
       <c r="F22" t="n">
-        <v>8226.804099999999</v>
+        <v>24.314</v>
       </c>
       <c r="G22" t="n">
-        <v>50.46666666666675</v>
+        <v>49.80833333333337</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="C23" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="D23" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="E23" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>8226.804099999999</v>
       </c>
       <c r="G23" t="n">
-        <v>50.46666666666675</v>
+        <v>49.83500000000004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="C24" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="D24" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="E24" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="F24" t="n">
-        <v>14951</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="n">
-        <v>50.56666666666676</v>
+        <v>49.87000000000005</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C25" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="D25" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E25" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="F25" t="n">
-        <v>14355</v>
+        <v>14951</v>
       </c>
       <c r="G25" t="n">
-        <v>50.73333333333343</v>
+        <v>49.90000000000005</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="C26" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="D26" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="E26" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>14355</v>
       </c>
       <c r="G26" t="n">
-        <v>50.76666666666677</v>
+        <v>49.93500000000005</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="C27" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D27" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="E27" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3904.5311</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>50.8000000000001</v>
+        <v>49.97500000000005</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>50.7</v>
       </c>
       <c r="F28" t="n">
-        <v>9607</v>
+        <v>3904.5311</v>
       </c>
       <c r="G28" t="n">
-        <v>50.76666666666677</v>
+        <v>50.01166666666672</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="C29" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="D29" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="E29" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="F29" t="n">
-        <v>3905</v>
+        <v>9607</v>
       </c>
       <c r="G29" t="n">
-        <v>50.83333333333343</v>
+        <v>50.04833333333338</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="C30" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="E30" t="n">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="F30" t="n">
-        <v>33615</v>
+        <v>3905</v>
       </c>
       <c r="G30" t="n">
-        <v>50.93333333333343</v>
+        <v>50.09166666666671</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C31" t="n">
         <v>51</v>
       </c>
-      <c r="C31" t="n">
-        <v>51.2</v>
-      </c>
       <c r="D31" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="F31" t="n">
-        <v>5380</v>
+        <v>33615</v>
       </c>
       <c r="G31" t="n">
-        <v>51.1000000000001</v>
+        <v>50.13333333333338</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>51</v>
+      </c>
+      <c r="C32" t="n">
         <v>51.2</v>
       </c>
-      <c r="C32" t="n">
-        <v>51.3</v>
-      </c>
       <c r="D32" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="E32" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="F32" t="n">
-        <v>2030</v>
+        <v>5380</v>
       </c>
       <c r="G32" t="n">
-        <v>51.16666666666677</v>
+        <v>50.17833333333338</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="C33" t="n">
-        <v>50.7</v>
+        <v>51.3</v>
       </c>
       <c r="D33" t="n">
-        <v>50.7</v>
+        <v>51.3</v>
       </c>
       <c r="E33" t="n">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="F33" t="n">
-        <v>794.9999</v>
+        <v>2030</v>
       </c>
       <c r="G33" t="n">
-        <v>51.06666666666678</v>
+        <v>50.22500000000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="C34" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="D34" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="E34" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
       <c r="F34" t="n">
-        <v>756.9999</v>
+        <v>794.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>51.03333333333344</v>
+        <v>50.26166666666671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>51.1</v>
       </c>
       <c r="C35" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="D35" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="E35" t="n">
         <v>51.1</v>
       </c>
       <c r="F35" t="n">
-        <v>9537.00390625</v>
+        <v>756.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>51.00000000000009</v>
+        <v>50.30500000000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C36" t="n">
         <v>51.2</v>
       </c>
-      <c r="C36" t="n">
-        <v>51.3</v>
-      </c>
       <c r="D36" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="E36" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="F36" t="n">
-        <v>1963.99610136</v>
+        <v>9537.00390625</v>
       </c>
       <c r="G36" t="n">
-        <v>51.2000000000001</v>
+        <v>50.34500000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C37" t="n">
         <v>51.3</v>
       </c>
-      <c r="C37" t="n">
-        <v>51.4</v>
-      </c>
       <c r="D37" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="E37" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="F37" t="n">
-        <v>6785</v>
+        <v>1963.99610136</v>
       </c>
       <c r="G37" t="n">
-        <v>51.3000000000001</v>
+        <v>50.3916666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C38" t="n">
         <v>51.4</v>
       </c>
-      <c r="C38" t="n">
-        <v>51.9</v>
-      </c>
       <c r="D38" t="n">
-        <v>51.9</v>
+        <v>51.4</v>
       </c>
       <c r="E38" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="F38" t="n">
-        <v>99624.26439279001</v>
+        <v>6785</v>
       </c>
       <c r="G38" t="n">
-        <v>51.53333333333344</v>
+        <v>50.43333333333337</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="C39" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="D39" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="E39" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="F39" t="n">
-        <v>935</v>
+        <v>99624.26439279001</v>
       </c>
       <c r="G39" t="n">
-        <v>51.7000000000001</v>
+        <v>50.4816666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>50.5</v>
+        <v>51.8</v>
       </c>
       <c r="C40" t="n">
-        <v>50.5</v>
+        <v>51.8</v>
       </c>
       <c r="D40" t="n">
-        <v>50.5</v>
+        <v>51.8</v>
       </c>
       <c r="E40" t="n">
-        <v>50.5</v>
+        <v>51.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1871.3542</v>
+        <v>935</v>
       </c>
       <c r="G40" t="n">
-        <v>51.4000000000001</v>
+        <v>50.53500000000005</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>50.5</v>
       </c>
       <c r="F41" t="n">
-        <v>909.691</v>
+        <v>1871.3542</v>
       </c>
       <c r="G41" t="n">
-        <v>50.93333333333343</v>
+        <v>50.56000000000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>50.5</v>
       </c>
       <c r="F42" t="n">
-        <v>735</v>
+        <v>909.691</v>
       </c>
       <c r="G42" t="n">
-        <v>50.50000000000009</v>
+        <v>50.57333333333338</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="C43" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="D43" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="E43" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F43" t="n">
-        <v>13895</v>
+        <v>735</v>
       </c>
       <c r="G43" t="n">
-        <v>50.53333333333342</v>
+        <v>50.59166666666671</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C44" t="n">
         <v>50.6</v>
       </c>
-      <c r="C44" t="n">
-        <v>51.6</v>
-      </c>
       <c r="D44" t="n">
-        <v>51.6</v>
+        <v>50.7</v>
       </c>
       <c r="E44" t="n">
         <v>50.6</v>
       </c>
       <c r="F44" t="n">
-        <v>3321.9999</v>
+        <v>13895</v>
       </c>
       <c r="G44" t="n">
-        <v>50.90000000000009</v>
+        <v>50.59666666666671</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,29 +1941,35 @@
         <v>50.6</v>
       </c>
       <c r="C45" t="n">
-        <v>50.5</v>
+        <v>51.6</v>
       </c>
       <c r="D45" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="E45" t="n">
         <v>50.6</v>
       </c>
-      <c r="E45" t="n">
-        <v>50.5</v>
-      </c>
       <c r="F45" t="n">
-        <v>3629</v>
+        <v>3321.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>50.90000000000009</v>
+        <v>50.64000000000004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>50.6</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,32 +1979,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="C46" t="n">
         <v>50.5</v>
       </c>
       <c r="D46" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="E46" t="n">
         <v>50.5</v>
       </c>
       <c r="F46" t="n">
-        <v>8100</v>
+        <v>3629</v>
       </c>
       <c r="G46" t="n">
-        <v>50.86666666666676</v>
+        <v>50.64333333333337</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2020,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="C47" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="D47" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="E47" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="F47" t="n">
-        <v>14535.543</v>
+        <v>8100</v>
       </c>
       <c r="G47" t="n">
-        <v>50.63333333333343</v>
+        <v>50.65166666666671</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2045,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,20 +2071,26 @@
         <v>50.9</v>
       </c>
       <c r="F48" t="n">
-        <v>6177.437</v>
+        <v>14535.543</v>
       </c>
       <c r="G48" t="n">
-        <v>50.76666666666677</v>
+        <v>50.66666666666671</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>50.5</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2100,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C49" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="D49" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E49" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="F49" t="n">
-        <v>1557.9999</v>
+        <v>6177.437</v>
       </c>
       <c r="G49" t="n">
-        <v>50.86666666666677</v>
+        <v>50.68000000000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2125,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2125,10 +2151,10 @@
         <v>50.8</v>
       </c>
       <c r="F50" t="n">
-        <v>24581</v>
+        <v>1557.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>50.83333333333344</v>
+        <v>50.68833333333338</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2164,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2178,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="C51" t="n">
         <v>50.8</v>
       </c>
       <c r="D51" t="n">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="E51" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="F51" t="n">
-        <v>15375.0222</v>
+        <v>24581</v>
       </c>
       <c r="G51" t="n">
-        <v>50.8000000000001</v>
+        <v>50.70166666666671</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2203,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2217,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50.8</v>
+        <v>51.6</v>
       </c>
       <c r="C52" t="n">
         <v>50.8</v>
       </c>
       <c r="D52" t="n">
-        <v>50.8</v>
+        <v>51.6</v>
       </c>
       <c r="E52" t="n">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="F52" t="n">
-        <v>799</v>
+        <v>15375.0222</v>
       </c>
       <c r="G52" t="n">
-        <v>50.80000000000009</v>
+        <v>50.71833333333338</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2242,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2268,10 @@
         <v>50.8</v>
       </c>
       <c r="F53" t="n">
-        <v>15715</v>
+        <v>799</v>
       </c>
       <c r="G53" t="n">
-        <v>50.80000000000009</v>
+        <v>50.72666666666671</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2281,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,19 +2298,19 @@
         <v>50.8</v>
       </c>
       <c r="C54" t="n">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="D54" t="n">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="E54" t="n">
         <v>50.8</v>
       </c>
       <c r="F54" t="n">
-        <v>4180</v>
+        <v>15715</v>
       </c>
       <c r="G54" t="n">
-        <v>51.06666666666676</v>
+        <v>50.73000000000005</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2320,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2334,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="C55" t="n">
         <v>51.6</v>
@@ -2297,13 +2343,13 @@
         <v>51.6</v>
       </c>
       <c r="E55" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="F55" t="n">
-        <v>3170</v>
+        <v>4180</v>
       </c>
       <c r="G55" t="n">
-        <v>51.33333333333343</v>
+        <v>50.76000000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2359,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2326,19 +2376,19 @@
         <v>50.9</v>
       </c>
       <c r="C56" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="D56" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="E56" t="n">
         <v>50.9</v>
       </c>
       <c r="F56" t="n">
-        <v>1580</v>
+        <v>3170</v>
       </c>
       <c r="G56" t="n">
-        <v>51.36666666666677</v>
+        <v>50.78833333333338</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2398,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2424,10 @@
         <v>50.9</v>
       </c>
       <c r="F57" t="n">
-        <v>6320</v>
+        <v>1580</v>
       </c>
       <c r="G57" t="n">
-        <v>51.13333333333344</v>
+        <v>50.79500000000004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2437,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2463,10 @@
         <v>50.9</v>
       </c>
       <c r="F58" t="n">
-        <v>1376</v>
+        <v>6320</v>
       </c>
       <c r="G58" t="n">
-        <v>50.90000000000011</v>
+        <v>50.80500000000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2476,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="C59" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="D59" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="E59" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>1376</v>
       </c>
       <c r="G59" t="n">
-        <v>51.13333333333344</v>
+        <v>50.81500000000004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2515,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2529,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="C60" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="D60" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="E60" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="F60" t="n">
-        <v>21154</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>51.13333333333344</v>
+        <v>50.84000000000004</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2554,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2501,19 +2571,19 @@
         <v>50.9</v>
       </c>
       <c r="C61" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="D61" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="E61" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="F61" t="n">
-        <v>12415.4577</v>
+        <v>21154</v>
       </c>
       <c r="G61" t="n">
-        <v>51.36666666666677</v>
+        <v>50.85333333333337</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2593,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2607,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C62" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="D62" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="E62" t="n">
         <v>50.8</v>
       </c>
       <c r="F62" t="n">
-        <v>24052.6244</v>
+        <v>12415.4577</v>
       </c>
       <c r="G62" t="n">
-        <v>51.33333333333344</v>
+        <v>50.87333333333337</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2632,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2658,10 @@
         <v>50.8</v>
       </c>
       <c r="F63" t="n">
-        <v>7765</v>
+        <v>24052.6244</v>
       </c>
       <c r="G63" t="n">
-        <v>51.53333333333344</v>
+        <v>50.89333333333337</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2671,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2688,19 @@
         <v>50.8</v>
       </c>
       <c r="C64" t="n">
-        <v>50.8</v>
+        <v>51.5</v>
       </c>
       <c r="D64" t="n">
-        <v>50.8</v>
+        <v>51.5</v>
       </c>
       <c r="E64" t="n">
         <v>50.8</v>
       </c>
       <c r="F64" t="n">
-        <v>1335</v>
+        <v>7765</v>
       </c>
       <c r="G64" t="n">
-        <v>51.26666666666677</v>
+        <v>50.91666666666671</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2710,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2724,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>51.5</v>
+        <v>50.8</v>
       </c>
       <c r="C65" t="n">
         <v>50.8</v>
       </c>
       <c r="D65" t="n">
-        <v>51.5</v>
+        <v>50.8</v>
       </c>
       <c r="E65" t="n">
         <v>50.8</v>
       </c>
       <c r="F65" t="n">
-        <v>817</v>
+        <v>1335</v>
       </c>
       <c r="G65" t="n">
-        <v>51.03333333333344</v>
+        <v>50.92333333333337</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2749,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2766,19 @@
         <v>51.5</v>
       </c>
       <c r="C66" t="n">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="D66" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="E66" t="n">
         <v>50.8</v>
       </c>
       <c r="F66" t="n">
-        <v>27451.369</v>
+        <v>817</v>
       </c>
       <c r="G66" t="n">
-        <v>51.06666666666677</v>
+        <v>50.92000000000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2788,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2802,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="C67" t="n">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="D67" t="n">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="E67" t="n">
-        <v>51.2</v>
+        <v>50.8</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>27451.369</v>
       </c>
       <c r="G67" t="n">
-        <v>51.2000000000001</v>
+        <v>50.92666666666671</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2827,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2841,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="C68" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D68" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="E68" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>51.26666666666677</v>
+        <v>50.92666666666671</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2866,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2883,19 @@
         <v>51</v>
       </c>
       <c r="C69" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="E69" t="n">
         <v>51</v>
       </c>
       <c r="F69" t="n">
-        <v>34259.6337</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>51.2000000000001</v>
+        <v>50.93166666666671</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2905,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2919,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C70" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="D70" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="E70" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="F70" t="n">
-        <v>17477.4813</v>
+        <v>34259.6337</v>
       </c>
       <c r="G70" t="n">
-        <v>51.23333333333344</v>
+        <v>50.94500000000005</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2944,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2970,10 @@
         <v>51.3</v>
       </c>
       <c r="F71" t="n">
-        <v>843</v>
+        <v>17477.4813</v>
       </c>
       <c r="G71" t="n">
-        <v>51.33333333333345</v>
+        <v>50.95666666666672</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2983,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3009,10 @@
         <v>51.3</v>
       </c>
       <c r="F72" t="n">
-        <v>4115.0001</v>
+        <v>843</v>
       </c>
       <c r="G72" t="n">
-        <v>51.30000000000012</v>
+        <v>50.97000000000006</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3022,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3036,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="C73" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="D73" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="F73" t="n">
-        <v>16084.5909</v>
+        <v>4115.0001</v>
       </c>
       <c r="G73" t="n">
-        <v>51.23333333333344</v>
+        <v>50.98166666666673</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3061,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +3078,19 @@
         <v>51.1</v>
       </c>
       <c r="C74" t="n">
-        <v>51.3</v>
+        <v>51.1</v>
       </c>
       <c r="D74" t="n">
-        <v>51.3</v>
+        <v>51.1</v>
       </c>
       <c r="E74" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="F74" t="n">
-        <v>12271</v>
+        <v>16084.5909</v>
       </c>
       <c r="G74" t="n">
-        <v>51.23333333333344</v>
+        <v>50.99166666666672</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3100,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,7 +3114,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>51.3</v>
+        <v>51.1</v>
       </c>
       <c r="C75" t="n">
         <v>51.3</v>
@@ -2997,13 +3123,13 @@
         <v>51.3</v>
       </c>
       <c r="E75" t="n">
-        <v>51.3</v>
+        <v>51.1</v>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>12271</v>
       </c>
       <c r="G75" t="n">
-        <v>51.23333333333344</v>
+        <v>50.99500000000007</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3139,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,10 +3165,10 @@
         <v>51.3</v>
       </c>
       <c r="F76" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="n">
-        <v>51.30000000000012</v>
+        <v>51.01166666666673</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3178,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3195,19 @@
         <v>51.3</v>
       </c>
       <c r="C77" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="D77" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="E77" t="n">
         <v>51.3</v>
       </c>
       <c r="F77" t="n">
-        <v>23287</v>
+        <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>51.33333333333345</v>
+        <v>51.0283333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3217,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,7 +3231,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="C78" t="n">
         <v>51.4</v>
@@ -3102,13 +3240,13 @@
         <v>51.4</v>
       </c>
       <c r="E78" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="F78" t="n">
-        <v>13337.5481</v>
+        <v>23287</v>
       </c>
       <c r="G78" t="n">
-        <v>51.36666666666679</v>
+        <v>51.03666666666673</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3256,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3282,10 @@
         <v>51.4</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>13337.5481</v>
       </c>
       <c r="G79" t="n">
-        <v>51.40000000000013</v>
+        <v>51.04500000000007</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3295,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3309,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="C80" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="D80" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="E80" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="F80" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>51.46666666666679</v>
+        <v>51.05500000000006</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3334,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3348,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C81" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="D81" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="E81" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="F81" t="n">
-        <v>1157.1925</v>
+        <v>1200</v>
       </c>
       <c r="G81" t="n">
-        <v>51.33333333333346</v>
+        <v>51.06833333333339</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3373,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3399,10 @@
         <v>51</v>
       </c>
       <c r="F82" t="n">
-        <v>11622.6329</v>
+        <v>1157.1925</v>
       </c>
       <c r="G82" t="n">
-        <v>51.20000000000012</v>
+        <v>51.08000000000006</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3412,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3426,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="C83" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="E83" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>11622.6329</v>
       </c>
       <c r="G83" t="n">
-        <v>51.16666666666679</v>
+        <v>51.09166666666672</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3451,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3477,10 @@
         <v>51.5</v>
       </c>
       <c r="F84" t="n">
-        <v>3790.5041</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>51.33333333333346</v>
+        <v>51.10333333333338</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3490,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3504,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="C85" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D85" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="E85" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>3790.5041</v>
       </c>
       <c r="G85" t="n">
-        <v>51.53333333333345</v>
+        <v>51.11833333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3529,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3555,10 @@
         <v>51.6</v>
       </c>
       <c r="F86" t="n">
-        <v>6083.3468</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>51.56666666666678</v>
+        <v>51.13166666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3568,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3594,10 @@
         <v>51.6</v>
       </c>
       <c r="F87" t="n">
-        <v>27267.3577</v>
+        <v>6083.3468</v>
       </c>
       <c r="G87" t="n">
-        <v>51.60000000000012</v>
+        <v>51.14333333333338</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3607,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3455,10 +3633,10 @@
         <v>51.6</v>
       </c>
       <c r="F88" t="n">
-        <v>1902</v>
+        <v>27267.3577</v>
       </c>
       <c r="G88" t="n">
-        <v>51.60000000000012</v>
+        <v>51.15833333333338</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3646,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3490,10 +3672,10 @@
         <v>51.6</v>
       </c>
       <c r="F89" t="n">
-        <v>9221</v>
+        <v>1902</v>
       </c>
       <c r="G89" t="n">
-        <v>51.60000000000012</v>
+        <v>51.17333333333338</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3685,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3711,10 @@
         <v>51.6</v>
       </c>
       <c r="F90" t="n">
-        <v>669.9999</v>
+        <v>9221</v>
       </c>
       <c r="G90" t="n">
-        <v>51.60000000000012</v>
+        <v>51.18166666666671</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3724,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3750,10 @@
         <v>51.6</v>
       </c>
       <c r="F91" t="n">
-        <v>10339.7005</v>
+        <v>669.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>51.60000000000012</v>
+        <v>51.19166666666671</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3763,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3777,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>51.1</v>
+        <v>51.6</v>
       </c>
       <c r="C92" t="n">
-        <v>50.7</v>
+        <v>51.6</v>
       </c>
       <c r="D92" t="n">
-        <v>51.1</v>
+        <v>51.6</v>
       </c>
       <c r="E92" t="n">
-        <v>50.7</v>
+        <v>51.6</v>
       </c>
       <c r="F92" t="n">
-        <v>18210.4674</v>
+        <v>10339.7005</v>
       </c>
       <c r="G92" t="n">
-        <v>51.30000000000012</v>
+        <v>51.19833333333338</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3802,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3816,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="C93" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="D93" t="n">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="E93" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="F93" t="n">
-        <v>111.4706</v>
+        <v>18210.4674</v>
       </c>
       <c r="G93" t="n">
-        <v>51.06666666666678</v>
+        <v>51.18833333333338</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3841,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3665,10 +3867,10 @@
         <v>50.9</v>
       </c>
       <c r="F94" t="n">
-        <v>1900.9999</v>
+        <v>111.4706</v>
       </c>
       <c r="G94" t="n">
-        <v>50.83333333333346</v>
+        <v>51.19166666666671</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3880,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3691,19 +3897,19 @@
         <v>50.9</v>
       </c>
       <c r="C95" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="D95" t="n">
         <v>50.9</v>
       </c>
       <c r="E95" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="F95" t="n">
-        <v>53614.7784</v>
+        <v>1900.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>50.80000000000013</v>
+        <v>51.18833333333338</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3919,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3726,19 +3936,19 @@
         <v>50.9</v>
       </c>
       <c r="C96" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="D96" t="n">
         <v>50.9</v>
       </c>
       <c r="E96" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="F96" t="n">
-        <v>7677.054</v>
+        <v>53614.7784</v>
       </c>
       <c r="G96" t="n">
-        <v>50.80000000000013</v>
+        <v>51.17833333333338</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3958,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +3984,10 @@
         <v>50.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1700.9714</v>
+        <v>7677.054</v>
       </c>
       <c r="G97" t="n">
-        <v>50.80000000000013</v>
+        <v>51.17166666666672</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3997,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3796,19 +4014,19 @@
         <v>50.9</v>
       </c>
       <c r="C98" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="D98" t="n">
         <v>50.9</v>
       </c>
       <c r="E98" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="F98" t="n">
-        <v>1194.833</v>
+        <v>1700.9714</v>
       </c>
       <c r="G98" t="n">
-        <v>50.8666666666668</v>
+        <v>51.16333333333338</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4036,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3831,19 +4053,19 @@
         <v>50.9</v>
       </c>
       <c r="C99" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="D99" t="n">
         <v>50.9</v>
       </c>
       <c r="E99" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="F99" t="n">
-        <v>730</v>
+        <v>1194.833</v>
       </c>
       <c r="G99" t="n">
-        <v>50.8666666666668</v>
+        <v>51.14500000000005</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4075,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +4101,10 @@
         <v>50.9</v>
       </c>
       <c r="F100" t="n">
-        <v>6006.2475</v>
+        <v>730</v>
       </c>
       <c r="G100" t="n">
-        <v>50.8666666666668</v>
+        <v>51.13000000000005</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4114,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4131,19 @@
         <v>50.9</v>
       </c>
       <c r="C101" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D101" t="n">
         <v>50.9</v>
       </c>
       <c r="E101" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="F101" t="n">
-        <v>3008.0917</v>
+        <v>6006.2475</v>
       </c>
       <c r="G101" t="n">
-        <v>50.83333333333346</v>
+        <v>51.13666666666672</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4153,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4170,19 @@
         <v>50.9</v>
       </c>
       <c r="C102" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="D102" t="n">
         <v>50.9</v>
       </c>
       <c r="E102" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="F102" t="n">
-        <v>1673.3577</v>
+        <v>3008.0917</v>
       </c>
       <c r="G102" t="n">
-        <v>50.83333333333346</v>
+        <v>51.14000000000005</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4192,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,36 +4206,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>51.5</v>
+        <v>50.9</v>
       </c>
       <c r="C103" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D103" t="n">
-        <v>51.7</v>
+        <v>50.9</v>
       </c>
       <c r="E103" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="F103" t="n">
-        <v>32383.439</v>
+        <v>1673.3577</v>
       </c>
       <c r="G103" t="n">
-        <v>50.76666666666679</v>
+        <v>51.14666666666672</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4009,22 +4245,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>50.9</v>
+        <v>51.5</v>
       </c>
       <c r="C104" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="D104" t="n">
         <v>51.7</v>
       </c>
       <c r="E104" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="F104" t="n">
-        <v>25662.5743</v>
+        <v>32383.439</v>
       </c>
       <c r="G104" t="n">
-        <v>50.83333333333346</v>
+        <v>51.14833333333338</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,32 +4284,30 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="C105" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="D105" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="E105" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="F105" t="n">
-        <v>9836.8992</v>
+        <v>25662.5743</v>
       </c>
       <c r="G105" t="n">
-        <v>51.0666666666668</v>
+        <v>51.13666666666672</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4101,10 +4335,10 @@
         <v>51.6</v>
       </c>
       <c r="F106" t="n">
-        <v>19711.9379</v>
+        <v>9836.8992</v>
       </c>
       <c r="G106" t="n">
-        <v>51.36666666666679</v>
+        <v>51.15500000000005</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4131,19 +4365,19 @@
         <v>51.6</v>
       </c>
       <c r="C107" t="n">
-        <v>50.8</v>
+        <v>51.6</v>
       </c>
       <c r="D107" t="n">
         <v>51.6</v>
       </c>
       <c r="E107" t="n">
-        <v>50.8</v>
+        <v>51.6</v>
       </c>
       <c r="F107" t="n">
-        <v>16900.5232</v>
+        <v>19711.9379</v>
       </c>
       <c r="G107" t="n">
-        <v>51.33333333333346</v>
+        <v>51.17333333333338</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4170,19 +4404,19 @@
         <v>51.6</v>
       </c>
       <c r="C108" t="n">
-        <v>51.8</v>
+        <v>50.8</v>
       </c>
       <c r="D108" t="n">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="E108" t="n">
-        <v>51.6</v>
+        <v>50.8</v>
       </c>
       <c r="F108" t="n">
-        <v>10343.85840077</v>
+        <v>16900.5232</v>
       </c>
       <c r="G108" t="n">
-        <v>51.40000000000012</v>
+        <v>51.17166666666672</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4206,22 +4440,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>51.1</v>
+        <v>51.6</v>
       </c>
       <c r="C109" t="n">
-        <v>51.1</v>
+        <v>51.8</v>
       </c>
       <c r="D109" t="n">
-        <v>51.1</v>
+        <v>51.8</v>
       </c>
       <c r="E109" t="n">
-        <v>51.1</v>
+        <v>51.6</v>
       </c>
       <c r="F109" t="n">
-        <v>6220.6145</v>
+        <v>10343.85840077</v>
       </c>
       <c r="G109" t="n">
-        <v>51.23333333333346</v>
+        <v>51.18666666666672</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4245,22 +4479,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="C110" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="E110" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="F110" t="n">
-        <v>3166.495</v>
+        <v>6220.6145</v>
       </c>
       <c r="G110" t="n">
-        <v>51.30000000000013</v>
+        <v>51.19166666666671</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4518,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="C111" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="D111" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E111" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="F111" t="n">
-        <v>4050.9999</v>
+        <v>3166.495</v>
       </c>
       <c r="G111" t="n">
-        <v>51.00000000000014</v>
+        <v>51.19500000000004</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4335,10 +4569,10 @@
         <v>50.9</v>
       </c>
       <c r="F112" t="n">
-        <v>9669.6353</v>
+        <v>4050.9999</v>
       </c>
       <c r="G112" t="n">
-        <v>50.93333333333347</v>
+        <v>51.19666666666671</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4362,32 +4596,30 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="C113" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E113" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="F113" t="n">
-        <v>1785.4026</v>
+        <v>9669.6353</v>
       </c>
       <c r="G113" t="n">
-        <v>50.93333333333347</v>
+        <v>51.19833333333337</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4403,32 +4635,30 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="C114" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="D114" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="E114" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="F114" t="n">
-        <v>6548.1595</v>
+        <v>1785.4026</v>
       </c>
       <c r="G114" t="n">
-        <v>51.03333333333347</v>
+        <v>51.2016666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>51</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4444,32 +4674,30 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C115" t="n">
         <v>51.2</v>
       </c>
-      <c r="C115" t="n">
-        <v>50.9</v>
-      </c>
       <c r="D115" t="n">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="E115" t="n">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="F115" t="n">
-        <v>32555.6357</v>
+        <v>6548.1595</v>
       </c>
       <c r="G115" t="n">
-        <v>51.03333333333347</v>
+        <v>51.19500000000004</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>51.2</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4485,7 +4713,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="C116" t="n">
         <v>50.9</v>
@@ -4497,20 +4725,18 @@
         <v>50.9</v>
       </c>
       <c r="F116" t="n">
-        <v>21763.7061</v>
+        <v>32555.6357</v>
       </c>
       <c r="G116" t="n">
-        <v>51.00000000000014</v>
+        <v>51.18333333333337</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4526,32 +4752,30 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="C117" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="D117" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="E117" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>21763.7061</v>
       </c>
       <c r="G117" t="n">
-        <v>51.13333333333346</v>
+        <v>51.18333333333337</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4567,32 +4791,30 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="C118" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="D118" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="E118" t="n">
-        <v>50.9</v>
+        <v>51.6</v>
       </c>
       <c r="F118" t="n">
-        <v>365.7419</v>
+        <v>200</v>
       </c>
       <c r="G118" t="n">
-        <v>51.13333333333346</v>
+        <v>51.19500000000004</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>51.6</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4608,22 +4830,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="C119" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="D119" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="E119" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="F119" t="n">
-        <v>2671.779</v>
+        <v>365.7419</v>
       </c>
       <c r="G119" t="n">
-        <v>51.36666666666679</v>
+        <v>51.19500000000004</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4659,10 +4881,10 @@
         <v>51.6</v>
       </c>
       <c r="F120" t="n">
-        <v>1312.9999</v>
+        <v>2671.779</v>
       </c>
       <c r="G120" t="n">
-        <v>51.36666666666679</v>
+        <v>51.19500000000004</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4686,22 +4908,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="C121" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="D121" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="E121" t="n">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="F121" t="n">
-        <v>1431.2459</v>
+        <v>1312.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>51.40000000000012</v>
+        <v>51.2066666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4725,22 +4947,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="C122" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="D122" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="E122" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="F122" t="n">
-        <v>292.1744</v>
+        <v>1431.2459</v>
       </c>
       <c r="G122" t="n">
-        <v>51.40000000000012</v>
+        <v>51.1966666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4764,22 +4986,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="C123" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="D123" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="E123" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="F123" t="n">
-        <v>237.1203</v>
+        <v>292.1744</v>
       </c>
       <c r="G123" t="n">
-        <v>51.36666666666679</v>
+        <v>51.19833333333337</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4815,10 +5037,10 @@
         <v>51.5</v>
       </c>
       <c r="F124" t="n">
-        <v>172.8621</v>
+        <v>237.1203</v>
       </c>
       <c r="G124" t="n">
-        <v>51.53333333333345</v>
+        <v>51.19833333333337</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4845,19 +5067,19 @@
         <v>51.5</v>
       </c>
       <c r="C125" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D125" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="E125" t="n">
         <v>51.5</v>
       </c>
       <c r="F125" t="n">
-        <v>1715</v>
+        <v>172.8621</v>
       </c>
       <c r="G125" t="n">
-        <v>51.53333333333345</v>
+        <v>51.21000000000003</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4884,19 +5106,19 @@
         <v>51.5</v>
       </c>
       <c r="C126" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="D126" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="E126" t="n">
         <v>51.5</v>
       </c>
       <c r="F126" t="n">
-        <v>2763.3632</v>
+        <v>1715</v>
       </c>
       <c r="G126" t="n">
-        <v>51.53333333333345</v>
+        <v>51.22333333333336</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4920,22 +5142,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="C127" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="D127" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="E127" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="F127" t="n">
-        <v>498.75</v>
+        <v>2763.3632</v>
       </c>
       <c r="G127" t="n">
-        <v>51.43333333333345</v>
+        <v>51.22166666666669</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4959,22 +5181,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="C128" t="n">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="D128" t="n">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="E128" t="n">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="F128" t="n">
-        <v>998.9999</v>
+        <v>498.75</v>
       </c>
       <c r="G128" t="n">
-        <v>51.40000000000012</v>
+        <v>51.22166666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,10 +5232,10 @@
         <v>51.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1998.33</v>
+        <v>998.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>51.40000000000012</v>
+        <v>51.23000000000003</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5049,10 +5271,10 @@
         <v>51.5</v>
       </c>
       <c r="F130" t="n">
-        <v>764.6763</v>
+        <v>1998.33</v>
       </c>
       <c r="G130" t="n">
-        <v>51.50000000000011</v>
+        <v>51.23166666666669</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5079,19 +5301,19 @@
         <v>51.5</v>
       </c>
       <c r="C131" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D131" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="E131" t="n">
         <v>51.5</v>
       </c>
       <c r="F131" t="n">
-        <v>10384.9704</v>
+        <v>764.6763</v>
       </c>
       <c r="G131" t="n">
-        <v>51.53333333333345</v>
+        <v>51.23500000000002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5115,7 +5337,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="C132" t="n">
         <v>51.6</v>
@@ -5124,13 +5346,13 @@
         <v>51.6</v>
       </c>
       <c r="E132" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="F132" t="n">
-        <v>1242.4084</v>
+        <v>10384.9704</v>
       </c>
       <c r="G132" t="n">
-        <v>51.56666666666678</v>
+        <v>51.24000000000002</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5376,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="C133" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D133" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="E133" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="F133" t="n">
-        <v>11024.6441</v>
+        <v>1242.4084</v>
       </c>
       <c r="G133" t="n">
-        <v>51.63333333333344</v>
+        <v>51.24500000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5205,10 +5427,10 @@
         <v>51.7</v>
       </c>
       <c r="F134" t="n">
-        <v>8828.6985</v>
+        <v>11024.6441</v>
       </c>
       <c r="G134" t="n">
-        <v>51.66666666666677</v>
+        <v>51.25500000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5232,22 +5454,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="C135" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="D135" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="E135" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>8828.6985</v>
       </c>
       <c r="G135" t="n">
-        <v>51.63333333333344</v>
+        <v>51.26166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5271,22 +5493,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>51.3</v>
+        <v>51.5</v>
       </c>
       <c r="C136" t="n">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="D136" t="n">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="E136" t="n">
-        <v>51.3</v>
+        <v>51.5</v>
       </c>
       <c r="F136" t="n">
-        <v>14967.2317</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>51.53333333333344</v>
+        <v>51.265</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5310,7 +5532,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="C137" t="n">
         <v>51.4</v>
@@ -5319,13 +5541,13 @@
         <v>51.4</v>
       </c>
       <c r="E137" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="F137" t="n">
-        <v>861</v>
+        <v>14967.2317</v>
       </c>
       <c r="G137" t="n">
-        <v>51.43333333333343</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5349,22 +5571,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="C138" t="n">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="D138" t="n">
         <v>51.4</v>
       </c>
       <c r="E138" t="n">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="F138" t="n">
-        <v>13391.8649</v>
+        <v>861</v>
       </c>
       <c r="G138" t="n">
-        <v>51.33333333333343</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5388,22 +5610,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="C139" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="D139" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="E139" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F139" t="n">
-        <v>5601.8066</v>
+        <v>13391.8649</v>
       </c>
       <c r="G139" t="n">
-        <v>51.3000000000001</v>
+        <v>51.26333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5427,22 +5649,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C140" t="n">
         <v>51.3</v>
       </c>
-      <c r="C140" t="n">
-        <v>51.4</v>
-      </c>
       <c r="D140" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="E140" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="F140" t="n">
-        <v>3342.4612</v>
+        <v>5601.8066</v>
       </c>
       <c r="G140" t="n">
-        <v>51.3000000000001</v>
+        <v>51.26166666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5466,7 +5688,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="C141" t="n">
         <v>51.4</v>
@@ -5475,13 +5697,13 @@
         <v>51.4</v>
       </c>
       <c r="E141" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="F141" t="n">
-        <v>4082.0046</v>
+        <v>3342.4612</v>
       </c>
       <c r="G141" t="n">
-        <v>51.36666666666677</v>
+        <v>51.25833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5517,10 +5739,10 @@
         <v>51.4</v>
       </c>
       <c r="F142" t="n">
-        <v>918.8948</v>
+        <v>4082.0046</v>
       </c>
       <c r="G142" t="n">
-        <v>51.40000000000011</v>
+        <v>51.265</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5556,10 +5778,10 @@
         <v>51.4</v>
       </c>
       <c r="F143" t="n">
-        <v>13824.9683</v>
+        <v>918.8948</v>
       </c>
       <c r="G143" t="n">
-        <v>51.40000000000011</v>
+        <v>51.27166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5583,22 +5805,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="C144" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="D144" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="E144" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="F144" t="n">
-        <v>5545.9922</v>
+        <v>13824.9683</v>
       </c>
       <c r="G144" t="n">
-        <v>51.43333333333344</v>
+        <v>51.27</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5622,22 +5844,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="C145" t="n">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="D145" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="E145" t="n">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="F145" t="n">
-        <v>44420.6814</v>
+        <v>5545.9922</v>
       </c>
       <c r="G145" t="n">
-        <v>51.3000000000001</v>
+        <v>51.27</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5661,22 +5883,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="C146" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="D146" t="n">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="E146" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>44420.6814</v>
       </c>
       <c r="G146" t="n">
-        <v>51.33333333333344</v>
+        <v>51.26000000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5712,10 +5934,10 @@
         <v>51.5</v>
       </c>
       <c r="F147" t="n">
-        <v>388.6019</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>51.33333333333344</v>
+        <v>51.25833333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5742,19 +5964,19 @@
         <v>51.5</v>
       </c>
       <c r="C148" t="n">
-        <v>51.7</v>
+        <v>51.5</v>
       </c>
       <c r="D148" t="n">
-        <v>51.7</v>
+        <v>51.5</v>
       </c>
       <c r="E148" t="n">
         <v>51.5</v>
       </c>
       <c r="F148" t="n">
-        <v>6449.9059</v>
+        <v>388.6019</v>
       </c>
       <c r="G148" t="n">
-        <v>51.56666666666678</v>
+        <v>51.25666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5778,22 +6000,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C149" t="n">
         <v>51.7</v>
       </c>
-      <c r="C149" t="n">
-        <v>51.2</v>
-      </c>
       <c r="D149" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E149" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="F149" t="n">
-        <v>19025.7597</v>
+        <v>6449.9059</v>
       </c>
       <c r="G149" t="n">
-        <v>51.46666666666678</v>
+        <v>51.25833333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5817,22 +6039,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>51.2</v>
+        <v>51.7</v>
       </c>
       <c r="C150" t="n">
         <v>51.2</v>
       </c>
       <c r="D150" t="n">
-        <v>51.2</v>
+        <v>51.8</v>
       </c>
       <c r="E150" t="n">
         <v>51.2</v>
       </c>
       <c r="F150" t="n">
-        <v>2174</v>
+        <v>19025.7597</v>
       </c>
       <c r="G150" t="n">
-        <v>51.36666666666677</v>
+        <v>51.25166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5856,22 +6078,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="C151" t="n">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="D151" t="n">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="E151" t="n">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="F151" t="n">
-        <v>10.12</v>
+        <v>2174</v>
       </c>
       <c r="G151" t="n">
-        <v>51.36666666666677</v>
+        <v>51.245</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5895,22 +6117,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="C152" t="n">
-        <v>51.2</v>
+        <v>51.7</v>
       </c>
       <c r="D152" t="n">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="E152" t="n">
-        <v>51.1</v>
+        <v>51.7</v>
       </c>
       <c r="F152" t="n">
-        <v>32731.6397</v>
+        <v>10.12</v>
       </c>
       <c r="G152" t="n">
-        <v>51.36666666666677</v>
+        <v>51.24666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5934,22 +6156,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="C153" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D153" t="n">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="E153" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="F153" t="n">
-        <v>4890</v>
+        <v>32731.6397</v>
       </c>
       <c r="G153" t="n">
-        <v>51.3000000000001</v>
+        <v>51.255</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5973,22 +6195,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="C154" t="n">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="D154" t="n">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="E154" t="n">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>4890</v>
       </c>
       <c r="G154" t="n">
-        <v>51.3000000000001</v>
+        <v>51.25666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6012,32 +6234,30 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="C155" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="D155" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="E155" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="F155" t="n">
         <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>51.40000000000011</v>
+        <v>51.27</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>51.7</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6056,19 +6276,19 @@
         <v>51.5</v>
       </c>
       <c r="C156" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="D156" t="n">
         <v>51.5</v>
       </c>
       <c r="E156" t="n">
-        <v>51.1</v>
+        <v>51.5</v>
       </c>
       <c r="F156" t="n">
-        <v>20886.3067</v>
+        <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>51.46666666666678</v>
+        <v>51.285</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6092,22 +6312,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="C157" t="n">
         <v>51.2</v>
       </c>
       <c r="D157" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="E157" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="F157" t="n">
-        <v>2818.5911</v>
+        <v>20886.3067</v>
       </c>
       <c r="G157" t="n">
-        <v>51.3000000000001</v>
+        <v>51.28999999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6134,19 +6354,19 @@
         <v>51.2</v>
       </c>
       <c r="C158" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D158" t="n">
         <v>51.2</v>
       </c>
       <c r="E158" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F158" t="n">
-        <v>42027.519</v>
+        <v>2818.5911</v>
       </c>
       <c r="G158" t="n">
-        <v>51.13333333333344</v>
+        <v>51.29499999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6170,22 +6390,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>50.9</v>
+        <v>51.2</v>
       </c>
       <c r="C159" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="D159" t="n">
-        <v>50.9</v>
+        <v>51.2</v>
       </c>
       <c r="E159" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="F159" t="n">
-        <v>4608.5818</v>
+        <v>42027.519</v>
       </c>
       <c r="G159" t="n">
-        <v>51.03333333333344</v>
+        <v>51.29833333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6209,22 +6429,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="C160" t="n">
         <v>50.9</v>
       </c>
       <c r="D160" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E160" t="n">
         <v>50.9</v>
       </c>
       <c r="F160" t="n">
-        <v>1354.7183</v>
+        <v>4608.5818</v>
       </c>
       <c r="G160" t="n">
-        <v>50.93333333333343</v>
+        <v>51.29833333333332</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6248,22 +6468,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="C161" t="n">
         <v>50.9</v>
       </c>
       <c r="D161" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E161" t="n">
         <v>50.9</v>
       </c>
       <c r="F161" t="n">
-        <v>27556.3903</v>
+        <v>1354.7183</v>
       </c>
       <c r="G161" t="n">
-        <v>50.9000000000001</v>
+        <v>51.29833333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6299,10 +6519,10 @@
         <v>50.9</v>
       </c>
       <c r="F162" t="n">
-        <v>25501.1955</v>
+        <v>27556.3903</v>
       </c>
       <c r="G162" t="n">
-        <v>50.9000000000001</v>
+        <v>51.30166666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6326,22 +6546,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="C163" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="D163" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E163" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="F163" t="n">
-        <v>17836.0898</v>
+        <v>25501.1955</v>
       </c>
       <c r="G163" t="n">
-        <v>50.86666666666676</v>
+        <v>51.30166666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6365,22 +6585,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="C164" t="n">
         <v>50.8</v>
       </c>
       <c r="D164" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="E164" t="n">
         <v>50.8</v>
       </c>
       <c r="F164" t="n">
-        <v>14600.7912</v>
+        <v>17836.0898</v>
       </c>
       <c r="G164" t="n">
-        <v>50.83333333333342</v>
+        <v>51.30333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6416,20 +6636,18 @@
         <v>50.8</v>
       </c>
       <c r="F165" t="n">
-        <v>5029.3857</v>
+        <v>14600.7912</v>
       </c>
       <c r="G165" t="n">
-        <v>50.80000000000008</v>
+        <v>51.30166666666666</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6457,20 +6675,18 @@
         <v>50.8</v>
       </c>
       <c r="F166" t="n">
-        <v>14493</v>
+        <v>5029.3857</v>
       </c>
       <c r="G166" t="n">
-        <v>50.80000000000007</v>
+        <v>51.28833333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6489,29 +6705,27 @@
         <v>50.8</v>
       </c>
       <c r="C167" t="n">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="D167" t="n">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="E167" t="n">
         <v>50.8</v>
       </c>
       <c r="F167" t="n">
-        <v>33606.4721</v>
+        <v>14493</v>
       </c>
       <c r="G167" t="n">
-        <v>50.96666666666673</v>
+        <v>51.27500000000001</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6527,7 +6741,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="C168" t="n">
         <v>51.3</v>
@@ -6536,23 +6750,21 @@
         <v>51.3</v>
       </c>
       <c r="E168" t="n">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="F168" t="n">
-        <v>194.93177387</v>
+        <v>33606.4721</v>
       </c>
       <c r="G168" t="n">
-        <v>51.1333333333334</v>
+        <v>51.28333333333334</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>51.3</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6568,32 +6780,30 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="C169" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="D169" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="E169" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="F169" t="n">
-        <v>10487.6972</v>
+        <v>194.93177387</v>
       </c>
       <c r="G169" t="n">
-        <v>51.20000000000007</v>
+        <v>51.27500000000001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>51.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6609,32 +6819,30 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="C170" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="D170" t="n">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="E170" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="F170" t="n">
-        <v>6509.3944</v>
+        <v>10487.6972</v>
       </c>
       <c r="G170" t="n">
-        <v>51.06666666666674</v>
+        <v>51.27333333333334</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>51</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6650,32 +6858,30 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="C171" t="n">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="D171" t="n">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="E171" t="n">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="F171" t="n">
-        <v>1805.7947</v>
+        <v>6509.3944</v>
       </c>
       <c r="G171" t="n">
-        <v>51.00000000000008</v>
+        <v>51.27166666666668</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>50.9</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6694,29 +6900,27 @@
         <v>51.1</v>
       </c>
       <c r="C172" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="D172" t="n">
         <v>51.1</v>
       </c>
       <c r="E172" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="F172" t="n">
-        <v>14806.8938</v>
+        <v>1805.7947</v>
       </c>
       <c r="G172" t="n">
-        <v>51.00000000000008</v>
+        <v>51.27500000000001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>51.1</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6732,32 +6936,30 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="C173" t="n">
         <v>51</v>
       </c>
       <c r="D173" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="E173" t="n">
         <v>51</v>
       </c>
       <c r="F173" t="n">
-        <v>7886.235</v>
+        <v>14806.8938</v>
       </c>
       <c r="G173" t="n">
-        <v>51.03333333333341</v>
+        <v>51.27666666666667</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>51</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6773,32 +6975,30 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="C174" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="D174" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="E174" t="n">
         <v>51</v>
       </c>
       <c r="F174" t="n">
-        <v>27507.6135</v>
+        <v>7886.235</v>
       </c>
       <c r="G174" t="n">
-        <v>51.06666666666675</v>
+        <v>51.27666666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>51</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6817,29 +7017,27 @@
         <v>51.1</v>
       </c>
       <c r="C175" t="n">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="D175" t="n">
         <v>51.2</v>
       </c>
       <c r="E175" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="F175" t="n">
-        <v>1680.1727</v>
+        <v>27507.6135</v>
       </c>
       <c r="G175" t="n">
-        <v>51.10000000000008</v>
+        <v>51.27666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>51.2</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6855,32 +7053,30 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="C176" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="D176" t="n">
         <v>51.2</v>
       </c>
       <c r="E176" t="n">
-        <v>51.2</v>
+        <v>51.1</v>
       </c>
       <c r="F176" t="n">
-        <v>6106.6874</v>
+        <v>1680.1727</v>
       </c>
       <c r="G176" t="n">
-        <v>51.16666666666674</v>
+        <v>51.28</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>51.1</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6899,29 +7095,27 @@
         <v>51.2</v>
       </c>
       <c r="C177" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="D177" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="E177" t="n">
         <v>51.2</v>
       </c>
       <c r="F177" t="n">
-        <v>6072.2913</v>
+        <v>6106.6874</v>
       </c>
       <c r="G177" t="n">
-        <v>51.20000000000008</v>
+        <v>51.285</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>51.2</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6937,7 +7131,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="C178" t="n">
         <v>51.3</v>
@@ -6946,23 +7140,21 @@
         <v>51.3</v>
       </c>
       <c r="E178" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="F178" t="n">
-        <v>2668.76622613</v>
+        <v>6072.2913</v>
       </c>
       <c r="G178" t="n">
-        <v>51.26666666666676</v>
+        <v>51.28</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>51.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6990,20 +7182,18 @@
         <v>51.3</v>
       </c>
       <c r="F179" t="n">
-        <v>3357</v>
+        <v>2668.76622613</v>
       </c>
       <c r="G179" t="n">
-        <v>51.30000000000009</v>
+        <v>51.28666666666667</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>51.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7019,22 +7209,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C180" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="D180" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="E180" t="n">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>3357</v>
       </c>
       <c r="G180" t="n">
-        <v>51.40000000000009</v>
+        <v>51.28166666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7058,32 +7248,30 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="C181" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="D181" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="E181" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="F181" t="n">
-        <v>1245.9999</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>51.43333333333343</v>
+        <v>51.28166666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>51.6</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7099,22 +7287,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="C182" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="D182" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="E182" t="n">
         <v>51.4</v>
       </c>
       <c r="F182" t="n">
-        <v>6777.9221</v>
+        <v>1245.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>51.53333333333344</v>
+        <v>51.28833333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7138,7 +7326,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="C183" t="n">
         <v>51.6</v>
@@ -7150,20 +7338,18 @@
         <v>51.4</v>
       </c>
       <c r="F183" t="n">
-        <v>2208</v>
+        <v>6777.9221</v>
       </c>
       <c r="G183" t="n">
-        <v>51.53333333333344</v>
+        <v>51.28833333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>51.6</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7182,29 +7368,27 @@
         <v>51.4</v>
       </c>
       <c r="C184" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="D184" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="E184" t="n">
         <v>51.4</v>
       </c>
       <c r="F184" t="n">
-        <v>10317.9987</v>
+        <v>2208</v>
       </c>
       <c r="G184" t="n">
-        <v>51.53333333333344</v>
+        <v>51.29000000000001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>51.6</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -7220,22 +7404,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="C185" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="D185" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="E185" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="F185" t="n">
-        <v>2597</v>
+        <v>10317.9987</v>
       </c>
       <c r="G185" t="n">
-        <v>51.50000000000011</v>
+        <v>51.28833333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7259,22 +7443,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="C186" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D186" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="E186" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="F186" t="n">
-        <v>850.3099999999999</v>
+        <v>2597</v>
       </c>
       <c r="G186" t="n">
-        <v>51.50000000000011</v>
+        <v>51.28666666666668</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7310,10 +7494,10 @@
         <v>51.6</v>
       </c>
       <c r="F187" t="n">
-        <v>3433.4199</v>
+        <v>850.3099999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>51.56666666666677</v>
+        <v>51.28833333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7340,19 +7524,19 @@
         <v>51.6</v>
       </c>
       <c r="C188" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D188" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="E188" t="n">
         <v>51.6</v>
       </c>
       <c r="F188" t="n">
-        <v>6431.3811</v>
+        <v>3433.4199</v>
       </c>
       <c r="G188" t="n">
-        <v>51.63333333333344</v>
+        <v>51.29500000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7376,7 +7560,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="C189" t="n">
         <v>51.7</v>
@@ -7385,13 +7569,13 @@
         <v>51.7</v>
       </c>
       <c r="E189" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="F189" t="n">
-        <v>5920.3868</v>
+        <v>6431.3811</v>
       </c>
       <c r="G189" t="n">
-        <v>51.66666666666677</v>
+        <v>51.29833333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7418,19 +7602,19 @@
         <v>51.7</v>
       </c>
       <c r="C190" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="D190" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E190" t="n">
         <v>51.7</v>
       </c>
       <c r="F190" t="n">
-        <v>13561.476</v>
+        <v>5920.3868</v>
       </c>
       <c r="G190" t="n">
-        <v>51.73333333333343</v>
+        <v>51.30166666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7466,10 +7650,10 @@
         <v>51.7</v>
       </c>
       <c r="F191" t="n">
-        <v>14943.9516</v>
+        <v>13561.476</v>
       </c>
       <c r="G191" t="n">
-        <v>51.76666666666677</v>
+        <v>51.30666666666668</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7496,19 +7680,19 @@
         <v>51.7</v>
       </c>
       <c r="C192" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="D192" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="E192" t="n">
         <v>51.7</v>
       </c>
       <c r="F192" t="n">
-        <v>14042.8399</v>
+        <v>14943.9516</v>
       </c>
       <c r="G192" t="n">
-        <v>51.83333333333343</v>
+        <v>51.31000000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7532,22 +7716,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="C193" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="D193" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="E193" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="F193" t="n">
-        <v>1505.2455</v>
+        <v>14042.8399</v>
       </c>
       <c r="G193" t="n">
-        <v>51.83333333333343</v>
+        <v>51.31500000000002</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7571,22 +7755,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="C194" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="D194" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="E194" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="F194" t="n">
-        <v>12154.9711</v>
+        <v>1505.2455</v>
       </c>
       <c r="G194" t="n">
-        <v>51.90000000000009</v>
+        <v>51.31666666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7610,22 +7794,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="C195" t="n">
         <v>52</v>
       </c>
-      <c r="C195" t="n">
-        <v>52.2</v>
-      </c>
       <c r="D195" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="E195" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="F195" t="n">
-        <v>26964.9217</v>
+        <v>12154.9711</v>
       </c>
       <c r="G195" t="n">
-        <v>52.00000000000009</v>
+        <v>51.32166666666669</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7649,22 +7833,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C196" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="D196" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="E196" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F196" t="n">
-        <v>2470.6771</v>
+        <v>26964.9217</v>
       </c>
       <c r="G196" t="n">
-        <v>52.10000000000008</v>
+        <v>51.33333333333336</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7688,22 +7872,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>51.7</v>
+        <v>52.1</v>
       </c>
       <c r="C197" t="n">
-        <v>51.6</v>
+        <v>52.1</v>
       </c>
       <c r="D197" t="n">
-        <v>51.7</v>
+        <v>52.1</v>
       </c>
       <c r="E197" t="n">
-        <v>51.6</v>
+        <v>52.1</v>
       </c>
       <c r="F197" t="n">
-        <v>6791.7394</v>
+        <v>2470.6771</v>
       </c>
       <c r="G197" t="n">
-        <v>51.96666666666675</v>
+        <v>51.34500000000002</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7727,22 +7911,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C198" t="n">
         <v>51.6</v>
       </c>
-      <c r="C198" t="n">
-        <v>52.1</v>
-      </c>
       <c r="D198" t="n">
-        <v>52.1</v>
+        <v>51.7</v>
       </c>
       <c r="E198" t="n">
         <v>51.6</v>
       </c>
       <c r="F198" t="n">
-        <v>800</v>
+        <v>6791.7394</v>
       </c>
       <c r="G198" t="n">
-        <v>51.93333333333342</v>
+        <v>51.34833333333335</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7766,7 +7950,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>52.1</v>
+        <v>51.6</v>
       </c>
       <c r="C199" t="n">
         <v>52.1</v>
@@ -7775,13 +7959,13 @@
         <v>52.1</v>
       </c>
       <c r="E199" t="n">
-        <v>52.1</v>
+        <v>51.6</v>
       </c>
       <c r="F199" t="n">
-        <v>484.4372</v>
+        <v>800</v>
       </c>
       <c r="G199" t="n">
-        <v>51.93333333333342</v>
+        <v>51.36333333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7817,10 +8001,10 @@
         <v>52.1</v>
       </c>
       <c r="F200" t="n">
-        <v>2907</v>
+        <v>484.4372</v>
       </c>
       <c r="G200" t="n">
-        <v>52.10000000000008</v>
+        <v>51.37666666666668</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7856,10 +8040,10 @@
         <v>52.1</v>
       </c>
       <c r="F201" t="n">
-        <v>12311.536</v>
+        <v>2907</v>
       </c>
       <c r="G201" t="n">
-        <v>52.10000000000008</v>
+        <v>51.38833333333334</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7883,22 +8067,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C202" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D202" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E202" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>12311.536</v>
       </c>
       <c r="G202" t="n">
-        <v>52.13333333333341</v>
+        <v>51.40000000000001</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7934,10 +8118,10 @@
         <v>52.2</v>
       </c>
       <c r="F203" t="n">
-        <v>1654</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>52.16666666666675</v>
+        <v>51.41333333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7973,10 +8157,10 @@
         <v>52.2</v>
       </c>
       <c r="F204" t="n">
-        <v>674</v>
+        <v>1654</v>
       </c>
       <c r="G204" t="n">
-        <v>52.2000000000001</v>
+        <v>51.42666666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8000,22 +8184,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="C205" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="D205" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="E205" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="F205" t="n">
-        <v>1705</v>
+        <v>674</v>
       </c>
       <c r="G205" t="n">
-        <v>52.16666666666676</v>
+        <v>51.43833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8051,10 +8235,10 @@
         <v>52.1</v>
       </c>
       <c r="F206" t="n">
-        <v>25845.7533</v>
+        <v>1705</v>
       </c>
       <c r="G206" t="n">
-        <v>52.13333333333342</v>
+        <v>51.45666666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8090,10 +8274,10 @@
         <v>52.1</v>
       </c>
       <c r="F207" t="n">
-        <v>8085.8589</v>
+        <v>25845.7533</v>
       </c>
       <c r="G207" t="n">
-        <v>52.10000000000008</v>
+        <v>51.46666666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8117,22 +8301,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C208" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D208" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E208" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F208" t="n">
-        <v>868.1981</v>
+        <v>8085.8589</v>
       </c>
       <c r="G208" t="n">
-        <v>52.06666666666675</v>
+        <v>51.47666666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8156,22 +8340,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C209" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D209" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E209" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>868.1981</v>
       </c>
       <c r="G209" t="n">
-        <v>52.06666666666675</v>
+        <v>51.48166666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8195,22 +8379,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C210" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D210" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E210" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F210" t="n">
-        <v>860.9999</v>
+        <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>52.03333333333342</v>
+        <v>51.49666666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8234,22 +8418,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C211" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D211" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E211" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="F211" t="n">
-        <v>1666.5703</v>
+        <v>860.9999</v>
       </c>
       <c r="G211" t="n">
-        <v>52.00000000000009</v>
+        <v>51.51</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8285,10 +8469,10 @@
         <v>51.9</v>
       </c>
       <c r="F212" t="n">
-        <v>12185.5039</v>
+        <v>1666.5703</v>
       </c>
       <c r="G212" t="n">
-        <v>51.93333333333342</v>
+        <v>51.51333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8312,22 +8496,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="C213" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="D213" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="E213" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="F213" t="n">
-        <v>7531.7644</v>
+        <v>12185.5039</v>
       </c>
       <c r="G213" t="n">
-        <v>51.93333333333342</v>
+        <v>51.52500000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8351,7 +8535,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="C214" t="n">
         <v>52</v>
@@ -8360,13 +8544,13 @@
         <v>52</v>
       </c>
       <c r="E214" t="n">
-        <v>51.7</v>
+        <v>52</v>
       </c>
       <c r="F214" t="n">
-        <v>32121.4158</v>
+        <v>7531.7644</v>
       </c>
       <c r="G214" t="n">
-        <v>51.96666666666675</v>
+        <v>51.54166666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8390,7 +8574,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="C215" t="n">
         <v>52</v>
@@ -8399,13 +8583,13 @@
         <v>52</v>
       </c>
       <c r="E215" t="n">
-        <v>52</v>
+        <v>51.7</v>
       </c>
       <c r="F215" t="n">
-        <v>7032.4321</v>
+        <v>32121.4158</v>
       </c>
       <c r="G215" t="n">
-        <v>52.00000000000009</v>
+        <v>51.54666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8429,22 +8613,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C216" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D216" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="E216" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F216" t="n">
-        <v>48965.9619</v>
+        <v>7032.4321</v>
       </c>
       <c r="G216" t="n">
-        <v>52.03333333333342</v>
+        <v>51.55500000000001</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8468,22 +8652,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="D217" t="n">
         <v>52.2</v>
       </c>
-      <c r="C217" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>53.1</v>
-      </c>
       <c r="E217" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F217" t="n">
-        <v>77428.0566</v>
+        <v>48965.9619</v>
       </c>
       <c r="G217" t="n">
-        <v>52.40000000000008</v>
+        <v>51.57000000000001</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8507,22 +8691,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C218" t="n">
-        <v>52.2</v>
+        <v>53.1</v>
       </c>
       <c r="D218" t="n">
-        <v>52.3</v>
+        <v>53.1</v>
       </c>
       <c r="E218" t="n">
         <v>52.2</v>
       </c>
       <c r="F218" t="n">
-        <v>5076.9702</v>
+        <v>77428.0566</v>
       </c>
       <c r="G218" t="n">
-        <v>52.46666666666675</v>
+        <v>51.60166666666668</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8549,19 +8733,19 @@
         <v>52.3</v>
       </c>
       <c r="C219" t="n">
-        <v>53</v>
+        <v>52.2</v>
       </c>
       <c r="D219" t="n">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
       <c r="E219" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F219" t="n">
-        <v>96185.71769999999</v>
+        <v>5076.9702</v>
       </c>
       <c r="G219" t="n">
-        <v>52.76666666666676</v>
+        <v>51.62166666666668</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8585,22 +8769,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C220" t="n">
+        <v>53</v>
+      </c>
+      <c r="D220" t="n">
         <v>53.2</v>
       </c>
-      <c r="C220" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="D220" t="n">
-        <v>53.6</v>
-      </c>
       <c r="E220" t="n">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
       <c r="F220" t="n">
-        <v>42323.6817</v>
+        <v>96185.71769999999</v>
       </c>
       <c r="G220" t="n">
-        <v>52.93333333333342</v>
+        <v>51.65666666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8624,22 +8808,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>53.9</v>
+        <v>53.2</v>
       </c>
       <c r="C221" t="n">
-        <v>54.8</v>
+        <v>53.6</v>
       </c>
       <c r="D221" t="n">
-        <v>54.8</v>
+        <v>53.6</v>
       </c>
       <c r="E221" t="n">
-        <v>53.6</v>
+        <v>53.2</v>
       </c>
       <c r="F221" t="n">
-        <v>85054.2822</v>
+        <v>42323.6817</v>
       </c>
       <c r="G221" t="n">
-        <v>53.80000000000009</v>
+        <v>51.70166666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8663,22 +8847,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>54.2</v>
+        <v>53.9</v>
       </c>
       <c r="C222" t="n">
-        <v>54.2</v>
+        <v>54.8</v>
       </c>
       <c r="D222" t="n">
         <v>54.8</v>
       </c>
       <c r="E222" t="n">
-        <v>54.2</v>
+        <v>53.6</v>
       </c>
       <c r="F222" t="n">
-        <v>36779.2331</v>
+        <v>85054.2822</v>
       </c>
       <c r="G222" t="n">
-        <v>54.20000000000008</v>
+        <v>51.76666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8708,31 +8892,33 @@
         <v>54.2</v>
       </c>
       <c r="D223" t="n">
-        <v>54.5</v>
+        <v>54.8</v>
       </c>
       <c r="E223" t="n">
         <v>54.2</v>
       </c>
       <c r="F223" t="n">
-        <v>17201.4353</v>
+        <v>36779.2331</v>
       </c>
       <c r="G223" t="n">
-        <v>54.40000000000008</v>
+        <v>51.82166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8742,29 +8928,33 @@
         <v>54.2</v>
       </c>
       <c r="C224" t="n">
-        <v>54.8</v>
+        <v>54.2</v>
       </c>
       <c r="D224" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="E224" t="n">
         <v>54.2</v>
       </c>
       <c r="F224" t="n">
-        <v>56468.22185693</v>
+        <v>17201.4353</v>
       </c>
       <c r="G224" t="n">
-        <v>54.40000000000007</v>
+        <v>51.87833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8774,7 +8964,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>54.7</v>
+        <v>54.2</v>
       </c>
       <c r="C225" t="n">
         <v>54.8</v>
@@ -8783,13 +8973,13 @@
         <v>54.8</v>
       </c>
       <c r="E225" t="n">
-        <v>54.7</v>
+        <v>54.2</v>
       </c>
       <c r="F225" t="n">
-        <v>56341.23357664</v>
+        <v>56468.22185693</v>
       </c>
       <c r="G225" t="n">
-        <v>54.60000000000008</v>
+        <v>51.945</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8799,7 +8989,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8809,32 +9003,36 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="C226" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="D226" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="E226" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="F226" t="n">
-        <v>122202.70712147</v>
+        <v>56341.23357664</v>
       </c>
       <c r="G226" t="n">
-        <v>54.96666666666675</v>
+        <v>52.01166666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8844,32 +9042,36 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C227" t="n">
         <v>55.3</v>
       </c>
-      <c r="C227" t="n">
-        <v>53.8</v>
-      </c>
       <c r="D227" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E227" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="F227" t="n">
-        <v>65749.814</v>
+        <v>122202.70712147</v>
       </c>
       <c r="G227" t="n">
-        <v>54.63333333333342</v>
+        <v>52.08666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8879,32 +9081,36 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>53.9</v>
+        <v>55.3</v>
       </c>
       <c r="C228" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="D228" t="n">
-        <v>53.9</v>
+        <v>55.3</v>
       </c>
       <c r="E228" t="n">
-        <v>52.1</v>
+        <v>53.8</v>
       </c>
       <c r="F228" t="n">
-        <v>91165.38920000001</v>
+        <v>65749.814</v>
       </c>
       <c r="G228" t="n">
-        <v>53.76666666666674</v>
+        <v>52.12833333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8914,22 +9120,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="C229" t="n">
-        <v>52.6</v>
+        <v>52.2</v>
       </c>
       <c r="D229" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="E229" t="n">
-        <v>52.6</v>
+        <v>52.1</v>
       </c>
       <c r="F229" t="n">
-        <v>64289.9978</v>
+        <v>91165.38920000001</v>
       </c>
       <c r="G229" t="n">
-        <v>52.86666666666675</v>
+        <v>52.14333333333332</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8939,7 +9145,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8952,19 +9162,19 @@
         <v>52.9</v>
       </c>
       <c r="C230" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="D230" t="n">
         <v>52.9</v>
       </c>
       <c r="E230" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="F230" t="n">
-        <v>4996.5066</v>
+        <v>64289.9978</v>
       </c>
       <c r="G230" t="n">
-        <v>52.56666666666676</v>
+        <v>52.16999999999999</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8974,7 +9184,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8984,22 +9198,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="C231" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="D231" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="E231" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>4996.5066</v>
       </c>
       <c r="G231" t="n">
-        <v>53.36666666666675</v>
+        <v>52.20333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9009,7 +9223,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9019,22 +9237,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="C232" t="n">
-        <v>52.8</v>
+        <v>54.6</v>
       </c>
       <c r="D232" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="E232" t="n">
-        <v>52.7</v>
+        <v>54.6</v>
       </c>
       <c r="F232" t="n">
-        <v>46665.2605</v>
+        <v>10</v>
       </c>
       <c r="G232" t="n">
-        <v>53.43333333333342</v>
+        <v>52.26166666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9044,7 +9262,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9054,22 +9276,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="C233" t="n">
         <v>52.8</v>
       </c>
-      <c r="C233" t="n">
-        <v>53</v>
-      </c>
       <c r="D233" t="n">
-        <v>53.1</v>
+        <v>53.8</v>
       </c>
       <c r="E233" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F233" t="n">
-        <v>24964.7354</v>
+        <v>46665.2605</v>
       </c>
       <c r="G233" t="n">
-        <v>53.46666666666675</v>
+        <v>52.29166666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9079,7 +9301,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9089,22 +9315,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="C234" t="n">
         <v>53</v>
       </c>
       <c r="D234" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E234" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="F234" t="n">
-        <v>7936</v>
+        <v>24964.7354</v>
       </c>
       <c r="G234" t="n">
-        <v>52.93333333333342</v>
+        <v>52.325</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9114,7 +9340,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9124,22 +9354,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="C235" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D235" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="E235" t="n">
         <v>53</v>
       </c>
       <c r="F235" t="n">
-        <v>47181.6267</v>
+        <v>7936</v>
       </c>
       <c r="G235" t="n">
-        <v>53.03333333333342</v>
+        <v>52.355</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9149,7 +9379,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9159,22 +9393,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="C236" t="n">
         <v>53.1</v>
       </c>
-      <c r="C236" t="n">
-        <v>53.3</v>
-      </c>
       <c r="D236" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="E236" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F236" t="n">
-        <v>5600</v>
+        <v>47181.6267</v>
       </c>
       <c r="G236" t="n">
-        <v>53.13333333333342</v>
+        <v>52.38833333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9184,7 +9418,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9194,22 +9432,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C237" t="n">
         <v>53.3</v>
       </c>
-      <c r="C237" t="n">
-        <v>53.4</v>
-      </c>
       <c r="D237" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E237" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F237" t="n">
-        <v>15720</v>
+        <v>5600</v>
       </c>
       <c r="G237" t="n">
-        <v>53.26666666666676</v>
+        <v>52.42333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9219,7 +9457,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9229,22 +9471,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>54</v>
+        <v>53.3</v>
       </c>
       <c r="C238" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="D238" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="E238" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="F238" t="n">
-        <v>32610.3645</v>
+        <v>15720</v>
       </c>
       <c r="G238" t="n">
-        <v>53.73333333333343</v>
+        <v>52.45833333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9254,7 +9496,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9264,22 +9510,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>54</v>
+      </c>
+      <c r="C239" t="n">
         <v>54.5</v>
       </c>
-      <c r="C239" t="n">
-        <v>53.8</v>
-      </c>
       <c r="D239" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E239" t="n">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="F239" t="n">
-        <v>22094.7399</v>
+        <v>32610.3645</v>
       </c>
       <c r="G239" t="n">
-        <v>53.90000000000009</v>
+        <v>52.51166666666666</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9289,7 +9535,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9299,22 +9549,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C240" t="n">
         <v>53.8</v>
       </c>
-      <c r="C240" t="n">
-        <v>54.3</v>
-      </c>
       <c r="D240" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="E240" t="n">
         <v>53.8</v>
       </c>
       <c r="F240" t="n">
-        <v>4255.169</v>
+        <v>22094.7399</v>
       </c>
       <c r="G240" t="n">
-        <v>54.2000000000001</v>
+        <v>52.55333333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9324,7 +9574,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9334,22 +9588,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="C241" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D241" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="E241" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="F241" t="n">
-        <v>2111</v>
+        <v>4255.169</v>
       </c>
       <c r="G241" t="n">
-        <v>54.03333333333342</v>
+        <v>52.59833333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9359,7 +9613,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9369,22 +9627,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="C242" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="D242" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="E242" t="n">
         <v>54</v>
       </c>
       <c r="F242" t="n">
-        <v>348</v>
+        <v>2111</v>
       </c>
       <c r="G242" t="n">
-        <v>54.30000000000009</v>
+        <v>52.64166666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9394,7 +9652,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9404,22 +9666,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C243" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E243" t="n">
         <v>54</v>
       </c>
-      <c r="C243" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="D243" t="n">
-        <v>54</v>
-      </c>
-      <c r="E243" t="n">
-        <v>53.6</v>
-      </c>
       <c r="F243" t="n">
-        <v>31167.1973</v>
+        <v>348</v>
       </c>
       <c r="G243" t="n">
-        <v>54.06666666666676</v>
+        <v>52.69166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9429,7 +9691,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9439,22 +9705,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C244" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="D244" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E244" t="n">
-        <v>53</v>
+        <v>53.6</v>
       </c>
       <c r="F244" t="n">
-        <v>73742.3849</v>
+        <v>31167.1973</v>
       </c>
       <c r="G244" t="n">
-        <v>53.76666666666676</v>
+        <v>52.725</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9464,7 +9730,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9474,22 +9744,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="C245" t="n">
         <v>53.1</v>
       </c>
       <c r="D245" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="E245" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F245" t="n">
-        <v>10804.0677</v>
+        <v>73742.3849</v>
       </c>
       <c r="G245" t="n">
-        <v>53.26666666666676</v>
+        <v>52.75333333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9499,7 +9769,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9509,22 +9783,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="C246" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="D246" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="E246" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="F246" t="n">
-        <v>10</v>
+        <v>10804.0677</v>
       </c>
       <c r="G246" t="n">
-        <v>53.53333333333342</v>
+        <v>52.77999999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9534,7 +9808,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9544,22 +9822,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>53.1</v>
+        <v>54.4</v>
       </c>
       <c r="C247" t="n">
-        <v>53.7</v>
+        <v>54.4</v>
       </c>
       <c r="D247" t="n">
-        <v>53.7</v>
+        <v>54.4</v>
       </c>
       <c r="E247" t="n">
-        <v>53.1</v>
+        <v>54.4</v>
       </c>
       <c r="F247" t="n">
-        <v>1598.9999</v>
+        <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>53.73333333333343</v>
+        <v>52.82666666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9569,7 +9847,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9579,7 +9861,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>53.7</v>
+        <v>53.1</v>
       </c>
       <c r="C248" t="n">
         <v>53.7</v>
@@ -9588,13 +9870,13 @@
         <v>53.7</v>
       </c>
       <c r="E248" t="n">
-        <v>53.7</v>
+        <v>53.1</v>
       </c>
       <c r="F248" t="n">
-        <v>25</v>
+        <v>1598.9999</v>
       </c>
       <c r="G248" t="n">
-        <v>53.93333333333344</v>
+        <v>52.86166666666666</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9604,7 +9886,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9614,22 +9900,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="C249" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="D249" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="E249" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G249" t="n">
-        <v>53.8000000000001</v>
+        <v>52.895</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9639,7 +9925,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9649,22 +9939,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C250" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="D250" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="E250" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="F250" t="n">
-        <v>6264.0745</v>
+        <v>10</v>
       </c>
       <c r="G250" t="n">
-        <v>53.6000000000001</v>
+        <v>52.93333333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9674,7 +9964,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9684,22 +9978,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C251" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="D251" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="E251" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="F251" t="n">
-        <v>4642</v>
+        <v>6264.0745</v>
       </c>
       <c r="G251" t="n">
-        <v>53.46666666666678</v>
+        <v>52.955</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9709,7 +10003,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9719,22 +10017,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C252" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="D252" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E252" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F252" t="n">
-        <v>30903.6375</v>
+        <v>4642</v>
       </c>
       <c r="G252" t="n">
-        <v>53.13333333333344</v>
+        <v>52.98</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9744,7 +10042,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9754,22 +10056,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="C253" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D253" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="E253" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F253" t="n">
-        <v>1367.5028</v>
+        <v>30903.6375</v>
       </c>
       <c r="G253" t="n">
-        <v>53.13333333333344</v>
+        <v>52.99833333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9779,7 +10081,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9801,10 +10107,10 @@
         <v>53.1</v>
       </c>
       <c r="F254" t="n">
-        <v>12307.5254</v>
+        <v>1367.5028</v>
       </c>
       <c r="G254" t="n">
-        <v>53.06666666666678</v>
+        <v>53.01999999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9814,7 +10120,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9827,19 +10137,19 @@
         <v>53.1</v>
       </c>
       <c r="C255" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="D255" t="n">
         <v>53.1</v>
       </c>
       <c r="E255" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F255" t="n">
-        <v>92471.6722</v>
+        <v>12307.5254</v>
       </c>
       <c r="G255" t="n">
-        <v>53.03333333333345</v>
+        <v>53.03833333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9849,7 +10159,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9859,22 +10173,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="C256" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D256" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="E256" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F256" t="n">
-        <v>19604.731</v>
+        <v>92471.6722</v>
       </c>
       <c r="G256" t="n">
-        <v>52.93333333333344</v>
+        <v>53.04999999999999</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9884,7 +10198,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9906,10 +10224,10 @@
         <v>52.8</v>
       </c>
       <c r="F257" t="n">
-        <v>6018</v>
+        <v>19604.731</v>
       </c>
       <c r="G257" t="n">
-        <v>52.83333333333344</v>
+        <v>53.06166666666666</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9919,7 +10237,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9929,22 +10251,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C258" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="D258" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="E258" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F258" t="n">
-        <v>400</v>
+        <v>6018</v>
       </c>
       <c r="G258" t="n">
-        <v>52.93333333333344</v>
+        <v>53.08166666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9954,7 +10276,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9964,22 +10290,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C259" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="D259" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E259" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F259" t="n">
-        <v>3980</v>
+        <v>400</v>
       </c>
       <c r="G259" t="n">
-        <v>53.00000000000011</v>
+        <v>53.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9989,7 +10315,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10002,19 +10332,19 @@
         <v>53</v>
       </c>
       <c r="C260" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D260" t="n">
         <v>53</v>
       </c>
       <c r="E260" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F260" t="n">
-        <v>13940</v>
+        <v>3980</v>
       </c>
       <c r="G260" t="n">
-        <v>53.03333333333345</v>
+        <v>53.115</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10024,7 +10354,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10034,22 +10368,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C261" t="n">
         <v>52.9</v>
       </c>
       <c r="D261" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E261" t="n">
         <v>52.9</v>
       </c>
       <c r="F261" t="n">
-        <v>461.6</v>
+        <v>13940</v>
       </c>
       <c r="G261" t="n">
-        <v>52.93333333333345</v>
+        <v>53.12833333333334</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10059,7 +10393,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10069,22 +10407,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C262" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D262" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E262" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F262" t="n">
-        <v>12129.0298</v>
+        <v>461.6</v>
       </c>
       <c r="G262" t="n">
-        <v>52.93333333333345</v>
+        <v>53.14166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10094,7 +10432,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10104,22 +10446,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="C263" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="D263" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="E263" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="F263" t="n">
-        <v>10</v>
+        <v>12129.0298</v>
       </c>
       <c r="G263" t="n">
-        <v>53.10000000000012</v>
+        <v>53.15500000000001</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10129,7 +10471,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10139,22 +10485,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="C264" t="n">
-        <v>53.9</v>
+        <v>53.4</v>
       </c>
       <c r="D264" t="n">
-        <v>53.9</v>
+        <v>53.4</v>
       </c>
       <c r="E264" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="F264" t="n">
-        <v>14322.5593</v>
+        <v>10</v>
       </c>
       <c r="G264" t="n">
-        <v>53.43333333333345</v>
+        <v>53.17500000000002</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10164,7 +10510,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10177,33 +10527,33 @@
         <v>53</v>
       </c>
       <c r="C265" t="n">
-        <v>53</v>
+        <v>53.9</v>
       </c>
       <c r="D265" t="n">
-        <v>53</v>
+        <v>53.9</v>
       </c>
       <c r="E265" t="n">
         <v>53</v>
       </c>
       <c r="F265" t="n">
-        <v>3250.7688</v>
+        <v>14322.5593</v>
       </c>
       <c r="G265" t="n">
-        <v>53.43333333333345</v>
+        <v>53.20333333333335</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="K265" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="L265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10213,38 +10563,34 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="C266" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="D266" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="E266" t="n">
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="F266" t="n">
-        <v>967.925</v>
+        <v>3250.7688</v>
       </c>
       <c r="G266" t="n">
-        <v>53.43333333333345</v>
+        <v>53.21833333333336</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>53</v>
-      </c>
-      <c r="K266" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M266" t="n">
@@ -10256,22 +10602,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="C267" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="D267" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="E267" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="F267" t="n">
-        <v>6346.3229</v>
+        <v>967.925</v>
       </c>
       <c r="G267" t="n">
-        <v>53.16666666666678</v>
+        <v>53.24000000000002</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10280,12 +10626,10 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M267" t="n">
@@ -10309,10 +10653,10 @@
         <v>53.1</v>
       </c>
       <c r="F268" t="n">
-        <v>447.769</v>
+        <v>6346.3229</v>
       </c>
       <c r="G268" t="n">
-        <v>53.20000000000011</v>
+        <v>53.25666666666669</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10322,7 +10666,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10332,22 +10680,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C269" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D269" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E269" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F269" t="n">
-        <v>405.0844</v>
+        <v>447.769</v>
       </c>
       <c r="G269" t="n">
-        <v>53.13333333333345</v>
+        <v>53.27500000000002</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10357,7 +10705,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10367,32 +10719,38 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C270" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D270" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E270" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F270" t="n">
-        <v>1794.6779</v>
+        <v>405.0844</v>
       </c>
       <c r="G270" t="n">
-        <v>53.20000000000011</v>
+        <v>53.29333333333336</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>53.1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10402,32 +10760,38 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>53.9</v>
+        <v>53.3</v>
       </c>
       <c r="C271" t="n">
-        <v>53.9</v>
+        <v>53.3</v>
       </c>
       <c r="D271" t="n">
-        <v>53.9</v>
+        <v>53.3</v>
       </c>
       <c r="E271" t="n">
-        <v>53.9</v>
+        <v>53.3</v>
       </c>
       <c r="F271" t="n">
-        <v>10</v>
+        <v>1794.6779</v>
       </c>
       <c r="G271" t="n">
-        <v>53.46666666666678</v>
+        <v>53.31500000000003</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>53.2</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10437,32 +10801,38 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="C272" t="n">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="D272" t="n">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="E272" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="F272" t="n">
-        <v>10420.8993</v>
+        <v>10</v>
       </c>
       <c r="G272" t="n">
-        <v>53.63333333333346</v>
+        <v>53.34833333333336</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>53.3</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10472,32 +10842,38 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="C273" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="D273" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="E273" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="F273" t="n">
-        <v>2000</v>
+        <v>10420.8993</v>
       </c>
       <c r="G273" t="n">
-        <v>53.6666666666668</v>
+        <v>53.37833333333335</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>53.9</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10507,22 +10883,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="C274" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="D274" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="E274" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G274" t="n">
-        <v>53.60000000000013</v>
+        <v>53.40166666666669</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10532,7 +10908,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10542,22 +10922,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="C275" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="D275" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="E275" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="F275" t="n">
-        <v>1453</v>
+        <v>10</v>
       </c>
       <c r="G275" t="n">
-        <v>53.43333333333347</v>
+        <v>53.43000000000002</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10567,7 +10947,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10577,22 +10961,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C276" t="n">
         <v>53.2</v>
       </c>
       <c r="D276" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E276" t="n">
         <v>53.2</v>
       </c>
       <c r="F276" t="n">
-        <v>690.9999</v>
+        <v>1453</v>
       </c>
       <c r="G276" t="n">
-        <v>53.3666666666668</v>
+        <v>53.45000000000002</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10602,7 +10986,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10624,10 +11012,10 @@
         <v>53.2</v>
       </c>
       <c r="F277" t="n">
-        <v>19846.998</v>
+        <v>690.9999</v>
       </c>
       <c r="G277" t="n">
-        <v>53.20000000000014</v>
+        <v>53.46833333333335</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10637,7 +11025,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10647,22 +11039,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="C278" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="D278" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E278" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="F278" t="n">
-        <v>13169.8521</v>
+        <v>19846.998</v>
       </c>
       <c r="G278" t="n">
-        <v>53.13333333333347</v>
+        <v>53.47000000000001</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10672,7 +11064,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10682,22 +11078,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C279" t="n">
         <v>53</v>
       </c>
       <c r="D279" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E279" t="n">
         <v>53</v>
       </c>
       <c r="F279" t="n">
-        <v>2198</v>
+        <v>13169.8521</v>
       </c>
       <c r="G279" t="n">
-        <v>53.06666666666681</v>
+        <v>53.48333333333335</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10707,7 +11103,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10717,22 +11117,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="C280" t="n">
         <v>53</v>
       </c>
       <c r="D280" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E280" t="n">
         <v>53</v>
       </c>
       <c r="F280" t="n">
-        <v>4085.3755</v>
+        <v>2198</v>
       </c>
       <c r="G280" t="n">
-        <v>53.00000000000015</v>
+        <v>53.48333333333335</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10742,7 +11142,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10755,19 +11159,19 @@
         <v>53</v>
       </c>
       <c r="C281" t="n">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="D281" t="n">
         <v>53</v>
       </c>
       <c r="E281" t="n">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="F281" t="n">
-        <v>34886.8764</v>
+        <v>4085.3755</v>
       </c>
       <c r="G281" t="n">
-        <v>52.93333333333349</v>
+        <v>53.47333333333335</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10777,7 +11181,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10790,19 +11198,19 @@
         <v>53</v>
       </c>
       <c r="C282" t="n">
-        <v>53.7</v>
+        <v>52.8</v>
       </c>
       <c r="D282" t="n">
-        <v>53.7</v>
+        <v>53</v>
       </c>
       <c r="E282" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="F282" t="n">
-        <v>14294.89</v>
+        <v>34886.8764</v>
       </c>
       <c r="G282" t="n">
-        <v>53.16666666666682</v>
+        <v>53.44000000000002</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10812,7 +11220,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10822,22 +11234,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="C283" t="n">
-        <v>52.4</v>
+        <v>53.7</v>
       </c>
       <c r="D283" t="n">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="E283" t="n">
-        <v>52.4</v>
+        <v>53</v>
       </c>
       <c r="F283" t="n">
-        <v>16431.2897</v>
+        <v>14294.89</v>
       </c>
       <c r="G283" t="n">
-        <v>52.96666666666682</v>
+        <v>53.43166666666669</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10847,7 +11259,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10857,22 +11273,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="C284" t="n">
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="D284" t="n">
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="E284" t="n">
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="F284" t="n">
-        <v>3095.132</v>
+        <v>16431.2897</v>
       </c>
       <c r="G284" t="n">
-        <v>53.03333333333349</v>
+        <v>53.40166666666669</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10882,7 +11298,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10904,10 +11324,10 @@
         <v>53</v>
       </c>
       <c r="F285" t="n">
-        <v>1600</v>
+        <v>3095.132</v>
       </c>
       <c r="G285" t="n">
-        <v>52.80000000000016</v>
+        <v>53.37166666666668</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10917,7 +11337,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10939,10 +11363,10 @@
         <v>53</v>
       </c>
       <c r="F286" t="n">
-        <v>5564.6467</v>
+        <v>1600</v>
       </c>
       <c r="G286" t="n">
-        <v>53.00000000000016</v>
+        <v>53.34166666666668</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10952,8 +11376,51 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>53</v>
+      </c>
+      <c r="C287" t="n">
+        <v>53</v>
+      </c>
+      <c r="D287" t="n">
+        <v>53</v>
+      </c>
+      <c r="E287" t="n">
+        <v>53</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5564.6467</v>
+      </c>
+      <c r="G287" t="n">
+        <v>53.30333333333335</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M287" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-28 BackTest ETHOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,17 +1045,11 @@
         <v>-444542.58751125</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1088,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1125,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1199,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1236,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1273,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1343,13 +1309,15 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1380,9 +1348,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1417,11 +1387,9 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1456,7 +1424,7 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>48.5</v>
@@ -1495,9 +1463,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1532,9 +1502,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1569,9 +1541,11 @@
         <v>-472708.00591125</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1606,9 +1580,11 @@
         <v>-475508.00591125</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1643,7 +1619,7 @@
         <v>-461952.25951125</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>48.5</v>
@@ -1682,9 +1658,11 @@
         <v>-461941.25951125</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1719,11 +1697,9 @@
         <v>-468464.36591125</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1758,7 +1734,7 @@
         <v>-454405.36591125</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>48.6</v>
@@ -1797,11 +1773,9 @@
         <v>-453723.31991125</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2095,11 +2069,9 @@
         <v>-437013.6320112501</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>50.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2134,9 +2106,11 @@
         <v>-437424.6320112501</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>50.3</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2171,11 +2145,9 @@
         <v>-441724.6320112501</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2210,7 +2182,7 @@
         <v>-440969.6320112501</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>49.8</v>
@@ -2249,11 +2221,9 @@
         <v>-440958.6320112501</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2288,11 +2258,9 @@
         <v>-440996.9412112501</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2327,11 +2295,9 @@
         <v>-438070.3342112501</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2366,11 +2332,9 @@
         <v>-436707.0848112501</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>49.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2405,7 +2369,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>50.5</v>
@@ -2444,7 +2408,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>50.3</v>
@@ -2483,11 +2447,9 @@
         <v>-446161.2980112501</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2522,7 +2484,7 @@
         <v>-446161.2980112501</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>50.1</v>
@@ -2561,11 +2523,9 @@
         <v>-424211.2983112501</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>50.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2600,11 +2560,9 @@
         <v>-460912.2304112501</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>50.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2639,11 +2597,9 @@
         <v>-477749.2277112501</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2678,11 +2634,9 @@
         <v>-473985.7119112501</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2717,11 +2671,9 @@
         <v>-448927.1655112501</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>50.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2756,11 +2708,9 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2795,11 +2745,9 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>51.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2834,11 +2782,9 @@
         <v>-449860.7402112501</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>51.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2873,11 +2819,9 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2912,11 +2856,9 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2951,11 +2893,9 @@
         <v>-483193.45881125</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2990,11 +2930,9 @@
         <v>-480655.8106112501</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3140,9 +3078,11 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>50.3</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3177,7 +3117,7 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>50.3</v>
@@ -3216,9 +3156,11 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3253,9 +3195,11 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3290,7 +3234,7 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>50.8</v>
@@ -3329,7 +3273,7 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>50.8</v>
@@ -3368,7 +3312,7 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>50.3</v>
@@ -3407,7 +3351,7 @@
         <v>-486095.2325112501</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>50.3</v>
@@ -3446,7 +3390,7 @@
         <v>-501046.2325112501</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>50.8</v>
@@ -3485,9 +3429,11 @@
         <v>-486691.2325112501</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>50.6</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3524,7 +3470,9 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3561,7 +3509,9 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3596,9 +3546,11 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>50.7</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3633,9 +3585,11 @@
         <v>-485690.7636112501</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50.7</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3670,9 +3624,11 @@
         <v>-519305.7636112501</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>51.1</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3709,7 +3665,9 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>51</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3744,9 +3702,11 @@
         <v>-511895.7636112501</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>51.2</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4225,11 +4185,9 @@
         <v>-383241.8535108501</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -6669,7 +6627,7 @@
         <v>-420655.7670100801</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6780,7 +6738,7 @@
         <v>-412322.2049100801</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6817,7 +6775,7 @@
         <v>-444877.8406100801</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6854,7 +6812,7 @@
         <v>-444877.8406100801</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6891,7 +6849,7 @@
         <v>-444677.8406100801</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6928,7 +6886,7 @@
         <v>-445043.5825100801</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7261,7 +7219,7 @@
         <v>-445295.1085100801</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7409,7 +7367,7 @@
         <v>-433911.1382100802</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7668,7 +7626,7 @@
         <v>-451255.5907100802</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7705,7 +7663,7 @@
         <v>-445653.7841100802</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7964,9 +7922,11 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>51</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -8186,9 +8146,11 @@
         <v>-526473.3856100801</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>51.7</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8223,9 +8185,11 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>51.2</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8260,9 +8224,11 @@
         <v>-531353.3856100801</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>51</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8297,9 +8263,11 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>51.7</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8334,9 +8302,11 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>51.5</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8371,9 +8341,11 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>51.2</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8408,9 +8380,11 @@
         <v>-594277.21131008</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>51.2</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8445,9 +8419,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>51</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8482,9 +8458,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8519,9 +8497,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8556,9 +8536,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8593,9 +8575,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8630,9 +8614,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8667,9 +8653,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8704,9 +8692,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8741,9 +8731,11 @@
         <v>-583115.41081008</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8778,9 +8770,11 @@
         <v>-583115.41081008</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>51.3</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8815,9 +8809,11 @@
         <v>-593603.1080100801</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>51.3</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8852,9 +8848,11 @@
         <v>-600112.5024100801</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>51</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8889,9 +8887,11 @@
         <v>-598306.7077100801</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8926,9 +8926,11 @@
         <v>-613113.60151008</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>51.1</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8963,9 +8965,11 @@
         <v>-613113.60151008</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>51</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9000,9 +9004,11 @@
         <v>-585605.9880100801</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>51</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9037,9 +9043,11 @@
         <v>-587286.1607100801</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>51.2</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9074,9 +9082,11 @@
         <v>-581179.47331008</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>51.1</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9111,9 +9121,11 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>51.2</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9148,9 +9160,11 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>51.3</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9185,9 +9199,11 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>51.3</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9222,9 +9238,11 @@
         <v>-575097.18201008</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>51.3</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9407,9 +9425,11 @@
         <v>-577286.25851008</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>51.4</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9444,9 +9464,11 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>51.5</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9481,9 +9503,11 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>51.6</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9518,9 +9542,11 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>51.6</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9555,9 +9581,11 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>51.7</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9592,9 +9620,11 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>51.7</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9629,9 +9659,11 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>51.8</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9666,9 +9698,11 @@
         <v>-542400.25151008</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>51.8</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9703,9 +9737,11 @@
         <v>-543905.4970100799</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>51.9</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9740,9 +9776,11 @@
         <v>-531750.5259100799</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>51.8</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9777,9 +9815,11 @@
         <v>-504785.6042100799</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>52</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9814,9 +9854,11 @@
         <v>-507256.2813100799</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9851,9 +9893,11 @@
         <v>-514048.0207100799</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9888,9 +9932,11 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>51.6</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9925,9 +9971,11 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9999,9 +10047,11 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10036,9 +10086,11 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10073,9 +10125,11 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10110,9 +10164,11 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10147,9 +10203,11 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10184,9 +10242,11 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10221,9 +10281,11 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10258,9 +10320,11 @@
         <v>-515811.2188100799</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10295,9 +10359,11 @@
         <v>-515801.2188100799</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>52</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10332,9 +10398,11 @@
         <v>-516662.2187100799</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10369,9 +10437,11 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>52</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10406,9 +10476,11 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>51.9</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10443,9 +10515,11 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>51.9</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10480,7 +10554,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>52</v>
@@ -10519,9 +10593,11 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>52</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10556,9 +10632,11 @@
         <v>-461831.0627100799</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>52</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10593,9 +10671,11 @@
         <v>-384403.0061100799</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10630,9 +10710,11 @@
         <v>-389479.9763100799</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>53.1</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10667,9 +10749,11 @@
         <v>-293294.2586100799</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10704,9 +10788,11 @@
         <v>-250970.5769100799</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>53</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10778,16 +10864,18 @@
         <v>-202695.5278100799</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
       <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
@@ -10813,11 +10901,15 @@
         <v>-202695.5278100799</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10938,15 @@
         <v>-146227.3059531499</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10975,15 @@
         <v>-146227.3059531499</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11012,15 @@
         <v>-24024.59883167992</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11049,15 @@
         <v>-89774.41283167992</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11086,15 @@
         <v>-180939.8020316799</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11123,15 @@
         <v>-116649.8042316799</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11164,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11201,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11238,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11275,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11312,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11349,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11386,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11423,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11308,14 +11456,16 @@
         <v>-32231.83153167992</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -11341,7 +11491,7 @@
         <v>-54326.57143167993</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11374,7 +11524,7 @@
         <v>-50071.40243167993</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11407,7 +11557,7 @@
         <v>-52182.40243167993</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11440,7 +11590,7 @@
         <v>-51834.40243167993</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11473,7 +11623,7 @@
         <v>-83001.59973167992</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11506,7 +11656,7 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11539,7 +11689,7 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11572,7 +11722,7 @@
         <v>-156733.9846316799</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11605,7 +11755,7 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11638,7 +11788,7 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11671,7 +11821,7 @@
         <v>-158322.9845316799</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11704,7 +11854,7 @@
         <v>-164587.0590316799</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11737,7 +11887,7 @@
         <v>-159945.0590316799</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11770,7 +11920,7 @@
         <v>-190848.6965316799</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11803,7 +11953,7 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11836,7 +11986,7 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11869,7 +12019,7 @@
         <v>-281952.86593168</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11902,7 +12052,7 @@
         <v>-301557.59693168</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11935,7 +12085,7 @@
         <v>-301557.59693168</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11968,7 +12118,7 @@
         <v>-301157.59693168</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12001,7 +12151,7 @@
         <v>-305137.59693168</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12034,7 +12184,7 @@
         <v>-319077.59693168</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12067,7 +12217,7 @@
         <v>-319077.59693168</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12100,7 +12250,7 @@
         <v>-306948.56713168</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12133,7 +12283,7 @@
         <v>-306938.56713168</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12166,7 +12316,7 @@
         <v>-292616.0078316799</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12199,7 +12349,7 @@
         <v>-295866.77663168</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12232,7 +12382,7 @@
         <v>-294898.85163168</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12265,7 +12415,7 @@
         <v>-301245.17453168</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12298,7 +12448,7 @@
         <v>-301245.17453168</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12331,7 +12481,7 @@
         <v>-300840.09013168</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12364,7 +12514,7 @@
         <v>-299045.41223168</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12397,7 +12547,7 @@
         <v>-299035.41223168</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12430,7 +12580,7 @@
         <v>-309456.31153168</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12463,7 +12613,7 @@
         <v>-311456.31153168</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12496,7 +12646,7 @@
         <v>-311446.31153168</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12529,7 +12679,7 @@
         <v>-312899.31153168</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12562,7 +12712,7 @@
         <v>-312899.31153168</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12595,7 +12745,7 @@
         <v>-312899.31153168</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12628,7 +12778,7 @@
         <v>-326069.16363168</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12661,7 +12811,7 @@
         <v>-326069.16363168</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12694,7 +12844,7 @@
         <v>-326069.16363168</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12727,7 +12877,7 @@
         <v>-360956.04003168</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12760,7 +12910,7 @@
         <v>-346661.15003168</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12793,7 +12943,7 @@
         <v>-363092.43973168</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12826,7 +12976,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12859,7 +13009,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12892,7 +13042,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12925,7 +13075,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12958,7 +13108,7 @@
         <v>-421231.0383316801</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12991,7 +13141,7 @@
         <v>-506132.2790316801</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13024,7 +13174,7 @@
         <v>-491107.1656316801</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13057,7 +13207,7 @@
         <v>-493107.1656316801</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13090,7 +13240,7 @@
         <v>-495042.3894316801</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13123,7 +13273,7 @@
         <v>-498581.2095316801</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13156,7 +13306,7 @@
         <v>-481136.1327316801</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13222,7 +13372,7 @@
         <v>-606275.2483316801</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13233,6 +13383,6 @@
       <c r="M355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-28 BackTest ETHOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,17 +1309,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1348,17 +1342,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,17 +1408,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1463,17 +1441,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1502,17 +1474,11 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1541,17 +1507,11 @@
         <v>-472708.00591125</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1580,17 +1540,11 @@
         <v>-475508.00591125</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>48.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1619,17 +1573,11 @@
         <v>-461952.25951125</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1658,17 +1606,11 @@
         <v>-461941.25951125</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>48.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1701,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1734,17 +1672,11 @@
         <v>-454405.36591125</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1777,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1814,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1851,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1925,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1962,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1999,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2036,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2073,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2106,17 +2002,11 @@
         <v>-437424.6320112501</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2149,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2182,17 +2068,11 @@
         <v>-440969.6320112501</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2262,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2336,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2369,17 +2233,11 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>50.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2408,17 +2266,11 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>50.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2484,17 +2332,11 @@
         <v>-446161.2980112501</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>50.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2527,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2601,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2638,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2708,15 +2530,11 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2745,15 +2563,11 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2782,15 +2596,11 @@
         <v>-449860.7402112501</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2819,15 +2629,11 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2856,15 +2662,11 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2897,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2934,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2967,15 +2761,11 @@
         <v>-484621.01861125</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3004,15 +2794,11 @@
         <v>-484611.01861125</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3041,15 +2827,11 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3078,17 +2860,11 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>50.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3117,17 +2893,11 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>50.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3156,17 +2926,11 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>50.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3195,17 +2959,11 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>50.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3234,17 +2992,11 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3273,17 +3025,11 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3312,17 +3058,11 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>50.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3351,17 +3091,11 @@
         <v>-486095.2325112501</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>50.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3390,17 +3124,11 @@
         <v>-501046.2325112501</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3429,17 +3157,11 @@
         <v>-486691.2325112501</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>50.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3468,17 +3190,11 @@
         <v>-485691.2325112501</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3507,17 +3223,11 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3546,17 +3256,11 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>50.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3585,17 +3289,11 @@
         <v>-485690.7636112501</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>50.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3624,17 +3322,11 @@
         <v>-519305.7636112501</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>51.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3663,17 +3355,11 @@
         <v>-513925.7636112501</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>51</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3702,17 +3388,11 @@
         <v>-511895.7636112501</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>51.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3741,15 +3421,11 @@
         <v>-512690.7635112501</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3815,15 +3487,11 @@
         <v>-502396.7597050001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3852,15 +3520,11 @@
         <v>-500432.7636036401</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3889,15 +3553,11 @@
         <v>-493647.7636036401</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3926,15 +3586,11 @@
         <v>-394023.4992108501</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3963,15 +3619,11 @@
         <v>-394958.4992108501</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4000,15 +3652,11 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4037,15 +3685,11 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4074,15 +3718,11 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4111,15 +3751,11 @@
         <v>-382934.8534108501</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4148,15 +3784,11 @@
         <v>-379612.8535108501</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4222,15 +3850,11 @@
         <v>-383241.8535108501</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4259,15 +3883,11 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4296,15 +3916,11 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4333,15 +3949,11 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4370,15 +3982,11 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4407,15 +4015,11 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4444,15 +4048,11 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4481,15 +4081,11 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4670,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4703,15 +4279,11 @@
         <v>-367654.3104108501</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4740,15 +4312,11 @@
         <v>-388808.3104108501</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4777,15 +4345,11 @@
         <v>-376392.8527108501</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4814,15 +4378,11 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4851,15 +4411,11 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4888,15 +4444,11 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4925,15 +4477,11 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4962,15 +4510,11 @@
         <v>-374329.10811085</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4999,15 +4543,11 @@
         <v>-374339.10811085</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5036,15 +4576,11 @@
         <v>-374349.10811085</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5073,15 +4609,11 @@
         <v>-340089.47441085</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5110,15 +4642,11 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5147,15 +4675,11 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5184,15 +4708,11 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5225,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5258,15 +4774,11 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5295,15 +4807,11 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5332,15 +4840,11 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5369,15 +4873,11 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5406,15 +4906,11 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5443,15 +4939,11 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5480,15 +4972,11 @@
         <v>-336893.54661085</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5521,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5554,15 +5038,11 @@
         <v>-338050.73911085</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5595,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5669,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5706,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5743,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5776,15 +5236,11 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5813,15 +5269,11 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5850,15 +5302,11 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5887,15 +5335,11 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5924,15 +5368,11 @@
         <v>-356151.2065108501</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5961,15 +5401,11 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5998,15 +5434,11 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6035,15 +5467,11 @@
         <v>-409654.5143108501</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6113,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6150,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6187,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6224,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6261,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6298,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6335,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6372,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6409,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6446,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6483,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6520,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6557,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6594,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6631,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6668,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6705,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6742,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6816,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6890,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6927,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6964,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7001,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7038,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7075,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7112,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7149,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7186,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7223,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7260,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7297,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7330,15 +6622,11 @@
         <v>-444296.1086100801</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7367,15 +6655,11 @@
         <v>-433911.1382100802</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7408,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7445,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7478,15 +6754,11 @@
         <v>-422886.4941100802</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7515,15 +6787,11 @@
         <v>-422896.4941100802</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7556,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7593,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7630,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7667,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7704,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7737,15 +6985,11 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7774,15 +7018,11 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7811,15 +7051,11 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7848,15 +7084,11 @@
         <v>-436765.3307100802</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7885,15 +7117,11 @@
         <v>-481186.0121100802</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7922,17 +7150,11 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>51</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7961,15 +7183,11 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7998,15 +7216,11 @@
         <v>-474726.1062100802</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8035,15 +7249,11 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8072,15 +7282,11 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8109,15 +7315,11 @@
         <v>-493741.7459100801</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +7348,11 @@
         <v>-526473.3856100801</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>51.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +7381,11 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>51.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +7414,11 @@
         <v>-531353.3856100801</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8263,17 +7447,11 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>51.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8302,17 +7480,11 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>51.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8341,17 +7513,11 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>51.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8380,17 +7546,11 @@
         <v>-594277.21131008</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>51.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8419,17 +7579,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8458,17 +7612,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>50.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8497,17 +7645,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>50.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8536,17 +7678,11 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>50.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8575,17 +7711,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>50.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8614,17 +7744,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8653,17 +7777,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8692,17 +7810,11 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8739,7 +7851,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -9199,20 +8311,16 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>51.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -9243,12 +8351,10 @@
       <c r="I239" t="n">
         <v>51.3</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9277,13 +8383,15 @@
         <v>-576343.18191008</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>51.3</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -9314,13 +8422,15 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>51.3</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -9351,15 +8461,11 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9388,15 +8494,11 @@
         <v>-579883.25851008</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9425,17 +8527,11 @@
         <v>-577286.25851008</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>51.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9464,17 +8560,11 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>51.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9503,17 +8593,11 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>51.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9542,17 +8626,11 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>51.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9581,17 +8659,11 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>51.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9620,17 +8692,11 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>51.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9659,17 +8725,11 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>51.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9698,17 +8758,11 @@
         <v>-542400.25151008</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>51.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9737,17 +8791,11 @@
         <v>-543905.4970100799</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>51.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9776,17 +8824,11 @@
         <v>-531750.5259100799</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>51.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9823,7 +8865,7 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -9854,11 +8896,9 @@
         <v>-507256.2813100799</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>52.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -10010,9 +9050,11 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10164,11 +9206,9 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10203,11 +9243,9 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10242,11 +9280,9 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10281,11 +9317,9 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10320,11 +9354,9 @@
         <v>-515811.2188100799</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10359,11 +9391,9 @@
         <v>-515801.2188100799</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10398,11 +9428,9 @@
         <v>-516662.2187100799</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10437,11 +9465,9 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10476,11 +9502,9 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>51.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10515,11 +9539,9 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>51.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10554,11 +9576,9 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10593,11 +9613,9 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10632,11 +9650,9 @@
         <v>-461831.0627100799</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10671,11 +9687,9 @@
         <v>-384403.0061100799</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10710,11 +9724,9 @@
         <v>-389479.9763100799</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10749,11 +9761,9 @@
         <v>-293294.2586100799</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10788,11 +9798,9 @@
         <v>-250970.5769100799</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -11456,16 +10464,18 @@
         <v>-32231.83153167992</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -11491,11 +10501,15 @@
         <v>-54326.57143167993</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +10538,15 @@
         <v>-50071.40243167993</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11561,7 +10579,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11590,11 +10612,15 @@
         <v>-51834.40243167993</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +10649,15 @@
         <v>-83001.59973167992</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +10686,15 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11689,11 +10723,15 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11722,11 +10760,15 @@
         <v>-156733.9846316799</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11755,11 +10797,15 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +10834,15 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11821,11 +10871,15 @@
         <v>-158322.9845316799</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11854,11 +10908,15 @@
         <v>-164587.0590316799</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11887,11 +10945,15 @@
         <v>-159945.0590316799</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11920,11 +10982,15 @@
         <v>-190848.6965316799</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11953,11 +11019,15 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +11056,15 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +11093,15 @@
         <v>-281952.86593168</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12052,11 +11130,15 @@
         <v>-301557.59693168</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12085,11 +11167,15 @@
         <v>-301557.59693168</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12118,11 +11204,15 @@
         <v>-301157.59693168</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12151,11 +11241,15 @@
         <v>-305137.59693168</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12184,11 +11278,15 @@
         <v>-319077.59693168</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +11315,15 @@
         <v>-319077.59693168</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12250,11 +11352,15 @@
         <v>-306948.56713168</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12283,11 +11389,15 @@
         <v>-306938.56713168</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +11426,15 @@
         <v>-292616.0078316799</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12349,11 +11463,15 @@
         <v>-295866.77663168</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12382,11 +11500,15 @@
         <v>-294898.85163168</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12415,11 +11537,15 @@
         <v>-301245.17453168</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12452,10 +11578,12 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
@@ -12481,7 +11609,7 @@
         <v>-300840.09013168</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12547,7 +11675,7 @@
         <v>-299035.41223168</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12580,7 +11708,7 @@
         <v>-309456.31153168</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12613,7 +11741,7 @@
         <v>-311456.31153168</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12646,7 +11774,7 @@
         <v>-311446.31153168</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12679,7 +11807,7 @@
         <v>-312899.31153168</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12712,7 +11840,7 @@
         <v>-312899.31153168</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12745,7 +11873,7 @@
         <v>-312899.31153168</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12778,7 +11906,7 @@
         <v>-326069.16363168</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12811,7 +11939,7 @@
         <v>-326069.16363168</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12844,7 +11972,7 @@
         <v>-326069.16363168</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12877,7 +12005,7 @@
         <v>-360956.04003168</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12910,7 +12038,7 @@
         <v>-346661.15003168</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12943,7 +12071,7 @@
         <v>-363092.43973168</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12976,7 +12104,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13009,7 +12137,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13042,7 +12170,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13075,7 +12203,7 @@
         <v>-359997.30773168</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13108,7 +12236,7 @@
         <v>-421231.0383316801</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13141,7 +12269,7 @@
         <v>-506132.2790316801</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13174,7 +12302,7 @@
         <v>-491107.1656316801</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13207,7 +12335,7 @@
         <v>-493107.1656316801</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13240,7 +12368,7 @@
         <v>-495042.3894316801</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13273,7 +12401,7 @@
         <v>-498581.2095316801</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13383,6 +12511,6 @@
       <c r="M355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-28 BackTest ETHOS.xlsx
@@ -2233,7 +2233,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-446161.2980112501</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-449860.7402112501</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-484621.01861125</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-484611.01861125</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,10 +2860,14 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2893,11 +2897,19 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2938,19 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="J77" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2979,19 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3020,19 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3061,19 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3102,19 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3143,19 @@
         <v>-486095.2325112501</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3184,19 @@
         <v>-501046.2325112501</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J83" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3225,19 @@
         <v>-486691.2325112501</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3266,19 @@
         <v>-485691.2325112501</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3307,19 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3348,19 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3389,19 @@
         <v>-485690.7636112501</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3430,17 @@
         <v>-519305.7636112501</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3469,17 @@
         <v>-513925.7636112501</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3508,17 @@
         <v>-511895.7636112501</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3547,17 @@
         <v>-512690.7635112501</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3589,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3625,17 @@
         <v>-502396.7597050001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3664,17 @@
         <v>-500432.7636036401</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3703,17 @@
         <v>-493647.7636036401</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3742,17 @@
         <v>-394023.4992108501</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3781,17 @@
         <v>-394958.4992108501</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3820,17 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3859,17 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3898,17 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3937,17 @@
         <v>-382934.8534108501</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3976,17 @@
         <v>-379612.8535108501</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4054,17 @@
         <v>-383241.8535108501</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4093,17 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4132,17 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4171,17 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4210,17 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4249,17 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4288,17 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4327,17 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4369,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4408,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4447,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4486,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4525,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4561,17 @@
         <v>-367654.3104108501</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4600,17 @@
         <v>-388808.3104108501</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4639,17 @@
         <v>-376392.8527108501</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4678,17 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4717,17 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4756,17 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4795,17 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4834,17 @@
         <v>-374329.10811085</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4873,17 @@
         <v>-374339.10811085</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4912,17 @@
         <v>-374349.10811085</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4951,17 @@
         <v>-340089.47441085</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4990,17 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5029,17 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5068,17 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5110,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5146,17 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5185,17 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5224,17 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5263,17 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5302,17 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5341,17 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5380,17 @@
         <v>-336893.54661085</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5422,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5458,17 @@
         <v>-338050.73911085</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5500,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5539,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5578,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5617,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5656,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5692,17 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5731,17 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5770,17 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5809,17 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5848,17 @@
         <v>-356151.2065108501</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5887,17 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5926,17 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5965,17 @@
         <v>-409654.5143108501</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6007,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6046,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6085,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6124,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6163,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6202,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6241,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6280,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6319,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6397,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6436,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6475,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6514,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6553,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6592,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6631,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6670,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6709,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6748,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6787,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6826,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6865,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6904,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6943,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7021,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7099,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7138,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7177,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7216,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7255,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7330,17 @@
         <v>-444296.1086100801</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7369,17 @@
         <v>-433911.1382100802</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7411,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7450,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7486,17 @@
         <v>-422886.4941100802</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7525,17 @@
         <v>-422896.4941100802</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7567,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7606,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7645,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7684,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7723,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7759,17 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7798,17 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7837,17 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7876,17 @@
         <v>-436765.3307100802</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7915,17 @@
         <v>-481186.0121100802</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7954,17 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7993,17 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +8032,17 @@
         <v>-474726.1062100802</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +8071,17 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8110,17 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +8149,17 @@
         <v>-493741.7459100801</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +8188,17 @@
         <v>-526473.3856100801</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +8227,17 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8269,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +8305,17 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8344,17 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8383,17 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8425,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8464,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8503,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8542,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8581,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8620,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8659,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8698,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8737,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,15 +8773,15 @@
         <v>-583115.41081008</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -7882,12 +8812,12 @@
         <v>-583115.41081008</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,12 +8851,12 @@
         <v>-593603.1080100801</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7960,12 +8890,12 @@
         <v>-600112.5024100801</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>51</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7999,12 +8929,12 @@
         <v>-598306.7077100801</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,12 +8968,12 @@
         <v>-613113.60151008</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8077,12 +9007,12 @@
         <v>-613113.60151008</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>51</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8121,7 +9051,9 @@
       <c r="I233" t="n">
         <v>51</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,7 +9092,9 @@
       <c r="I234" t="n">
         <v>51.2</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8199,7 +9133,9 @@
       <c r="I235" t="n">
         <v>51.1</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8238,7 +9174,9 @@
       <c r="I236" t="n">
         <v>51.2</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8277,7 +9215,9 @@
       <c r="I237" t="n">
         <v>51.3</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8311,16 +9251,22 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="J238" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
       <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -8352,9 +9298,13 @@
         <v>51.3</v>
       </c>
       <c r="J239" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+        <v>50.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8383,15 +9333,17 @@
         <v>-576343.18191008</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>51.6</v>
+      </c>
       <c r="J240" t="n">
-        <v>51.3</v>
+        <v>50.3</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8422,15 +9374,17 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>51.4</v>
+      </c>
       <c r="J241" t="n">
-        <v>51.3</v>
+        <v>50.3</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8461,11 +9415,19 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J242" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8494,11 +9456,19 @@
         <v>-579883.25851008</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J243" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8527,11 +9497,19 @@
         <v>-577286.25851008</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="J244" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8560,11 +9538,19 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="J245" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +9579,19 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J246" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +9620,19 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J247" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +9661,19 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J248" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8692,11 +9702,19 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J249" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +9743,19 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J250" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +9784,19 @@
         <v>-542400.25151008</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J251" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +9825,19 @@
         <v>-543905.4970100799</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +9866,19 @@
         <v>-531750.5259100799</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J253" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8862,10 +9912,12 @@
       <c r="I254" t="n">
         <v>52</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8896,10 +9948,14 @@
         <v>-507256.2813100799</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,7 +9994,9 @@
       <c r="I256" t="n">
         <v>52.1</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,7 +10035,9 @@
       <c r="I257" t="n">
         <v>51.6</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,7 +10076,9 @@
       <c r="I258" t="n">
         <v>52.1</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,7 +10117,9 @@
       <c r="I259" t="n">
         <v>52.1</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,7 +10158,9 @@
       <c r="I260" t="n">
         <v>52.1</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,7 +10199,9 @@
       <c r="I261" t="n">
         <v>52.1</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,7 +10240,9 @@
       <c r="I262" t="n">
         <v>52.2</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,10 +10276,14 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9243,10 +10317,14 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9280,10 +10358,14 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9317,10 +10399,14 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9354,10 +10440,14 @@
         <v>-515811.2188100799</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9391,10 +10481,14 @@
         <v>-515801.2188100799</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>52</v>
+      </c>
+      <c r="J268" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9428,10 +10522,14 @@
         <v>-516662.2187100799</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9465,10 +10563,14 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>52</v>
+      </c>
+      <c r="J270" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9502,10 +10604,14 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J271" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9539,10 +10645,14 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J272" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,10 +10686,14 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>52</v>
+      </c>
+      <c r="J273" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,10 +10727,14 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>52</v>
+      </c>
+      <c r="J274" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,10 +10768,14 @@
         <v>-461831.0627100799</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>52</v>
+      </c>
+      <c r="J275" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,10 +10809,14 @@
         <v>-384403.0061100799</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9724,10 +10850,14 @@
         <v>-389479.9763100799</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9761,10 +10891,14 @@
         <v>-293294.2586100799</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="J278" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9798,10 +10932,14 @@
         <v>-250970.5769100799</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>53</v>
+      </c>
+      <c r="J279" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9838,7 +10976,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9875,7 +11015,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,7 +11054,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,7 +11093,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,19 +11129,23 @@
         <v>-146227.3059531499</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>1.084463220675944</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1.07563025210084</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10020,15 +11170,11 @@
         <v>-24024.59883167992</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10057,15 +11203,11 @@
         <v>-89774.41283167992</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10094,15 +11236,11 @@
         <v>-180939.8020316799</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10131,15 +11269,11 @@
         <v>-116649.8042316799</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10172,11 +11306,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10209,11 +11339,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10242,15 +11368,11 @@
         <v>-158308.5581316799</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10279,15 +11401,11 @@
         <v>-133343.8227316799</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10320,11 +11438,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10357,11 +11471,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10394,11 +11504,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10427,15 +11533,11 @@
         <v>-64842.19603167992</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10468,11 +11570,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10501,15 +11599,11 @@
         <v>-54326.57143167993</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10538,15 +11632,11 @@
         <v>-50071.40243167993</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10575,15 +11665,11 @@
         <v>-52182.40243167993</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10612,15 +11698,11 @@
         <v>-51834.40243167993</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10649,15 +11731,11 @@
         <v>-83001.59973167992</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10686,15 +11764,11 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10723,15 +11797,11 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10764,11 +11834,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10797,15 +11863,11 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10834,15 +11896,11 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10871,15 +11929,11 @@
         <v>-158322.9845316799</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10908,15 +11962,11 @@
         <v>-164587.0590316799</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10945,15 +11995,11 @@
         <v>-159945.0590316799</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10982,15 +12028,11 @@
         <v>-190848.6965316799</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11019,15 +12061,11 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11056,15 +12094,11 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11097,11 +12131,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11134,11 +12164,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11171,11 +12197,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +12230,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11245,11 +12263,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11282,11 +12296,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11319,11 +12329,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11356,11 +12362,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11393,11 +12395,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11430,11 +12428,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11467,11 +12461,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11504,11 +12494,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11541,11 +12527,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11574,16 +12556,14 @@
         <v>-301245.17453168</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
       <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
@@ -11642,7 +12622,7 @@
         <v>-299045.41223168</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
